--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -1402,10 +1402,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1426,10 +1426,10 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L19" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M19" t="n">
         <v>136</v>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>86.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="20">
@@ -2286,7 +2286,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>100</v>
@@ -2806,7 +2806,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
         <v>100</v>
@@ -3720,18 +3720,18 @@
         <v>100</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N63" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>84.16666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="64">
@@ -4032,18 +4032,18 @@
         <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="70">
@@ -4678,10 +4678,10 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -4702,10 +4702,10 @@
         <v>100</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>41.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="83">
@@ -4962,13 +4962,13 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N87" t="n">
         <v>100</v>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>74.99999999999999</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="88">
@@ -5014,10 +5014,10 @@
         <v>100</v>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M88" t="n">
         <v>101</v>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>76.66666666666664</v>
+        <v>78.33333333333333</v>
       </c>
     </row>
     <row r="89">
@@ -5800,7 +5800,7 @@
         <v>40</v>
       </c>
       <c r="M103" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="N103" t="n">
         <v>100</v>
@@ -6008,7 +6008,7 @@
         <v>100</v>
       </c>
       <c r="M107" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="N107" t="n">
         <v>100</v>
@@ -8192,7 +8192,7 @@
         <v>100</v>
       </c>
       <c r="M149" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N149" t="n">
         <v>100</v>
@@ -8452,7 +8452,7 @@
         <v>100</v>
       </c>
       <c r="M154" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N154" t="n">
         <v>100</v>
@@ -8578,10 +8578,10 @@
         <v>157</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158">
@@ -10942,10 +10942,10 @@
         <v>100</v>
       </c>
       <c r="K202" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L202" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M202" t="n">
         <v>71</v>
@@ -10959,7 +10959,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>94.99999999999997</v>
+        <v>96.66666666666666</v>
       </c>
     </row>
     <row r="203">
@@ -11364,18 +11364,18 @@
         <v>100</v>
       </c>
       <c r="M210" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N210" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>89.16666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="211">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2264,7 +2264,7 @@
         <v>100</v>
       </c>
       <c r="M35" t="n">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="N35" t="n">
         <v>100</v>
@@ -2442,10 +2442,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>49.99999999999999</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="40">
@@ -2754,7 +2754,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>100</v>
@@ -2778,7 +2778,7 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L45" t="n">
         <v>100</v>
@@ -2858,10 +2858,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="48">
@@ -3720,7 +3720,7 @@
         <v>100</v>
       </c>
       <c r="M63" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N63" t="n">
         <v>100</v>
@@ -4032,7 +4032,7 @@
         <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N69" t="n">
         <v>100</v>
@@ -4702,7 +4702,7 @@
         <v>100</v>
       </c>
       <c r="K82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L82" t="n">
         <v>100</v>
@@ -4968,7 +4968,7 @@
         <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="N87" t="n">
         <v>100</v>
@@ -5800,7 +5800,7 @@
         <v>40</v>
       </c>
       <c r="M103" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="N103" t="n">
         <v>100</v>
@@ -6008,7 +6008,7 @@
         <v>100</v>
       </c>
       <c r="M107" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N107" t="n">
         <v>100</v>
@@ -6736,7 +6736,7 @@
         <v>100</v>
       </c>
       <c r="M121" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="N121" t="n">
         <v>100</v>
@@ -7828,10 +7828,10 @@
         <v>50</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>74.99999999999999</v>
+        <v>80.83333333333331</v>
       </c>
     </row>
     <row r="143">
@@ -8036,10 +8036,10 @@
         <v>100</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>74.99999999999999</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="147">
@@ -8088,10 +8088,10 @@
         <v>100</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>74.99999999999999</v>
+        <v>77.49999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -8348,7 +8348,7 @@
         <v>100</v>
       </c>
       <c r="M152" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N152" t="n">
         <v>100</v>
@@ -8452,7 +8452,7 @@
         <v>100</v>
       </c>
       <c r="M154" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N154" t="n">
         <v>100</v>
@@ -8578,10 +8578,10 @@
         <v>157</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L157" t="n">
         <v>100</v>
@@ -8619,7 +8619,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="158">
@@ -10942,10 +10942,10 @@
         <v>100</v>
       </c>
       <c r="K202" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L202" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M202" t="n">
         <v>71</v>
@@ -10955,11 +10955,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>96.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="203">
@@ -11364,7 +11364,7 @@
         <v>100</v>
       </c>
       <c r="M210" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="N210" t="n">
         <v>100</v>
@@ -12508,10 +12508,10 @@
         <v>100</v>
       </c>
       <c r="M232" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N232" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>72.49999999999999</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="233">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2004,10 +2004,10 @@
         <v>100</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>85</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="31">
@@ -2986,7 +2986,7 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L49" t="n">
         <v>100</v>
@@ -4962,13 +4962,13 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="N87" t="n">
         <v>100</v>
@@ -7828,10 +7828,10 @@
         <v>50</v>
       </c>
       <c r="M142" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N142" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>80.83333333333331</v>
+        <v>91.66666666666666</v>
       </c>
     </row>
     <row r="143">
@@ -8036,7 +8036,7 @@
         <v>100</v>
       </c>
       <c r="M146" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N146" t="n">
         <v>100</v>
@@ -8452,7 +8452,7 @@
         <v>100</v>
       </c>
       <c r="M154" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N154" t="n">
         <v>100</v>
@@ -12508,7 +12508,7 @@
         <v>100</v>
       </c>
       <c r="M232" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N232" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2004,7 +2004,7 @@
         <v>100</v>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N30" t="n">
         <v>100</v>
@@ -2264,7 +2264,7 @@
         <v>100</v>
       </c>
       <c r="M35" t="n">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="N35" t="n">
         <v>100</v>
@@ -4968,7 +4968,7 @@
         <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N87" t="n">
         <v>100</v>
@@ -5020,7 +5020,7 @@
         <v>20</v>
       </c>
       <c r="M88" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N88" t="n">
         <v>100</v>
@@ -5904,7 +5904,7 @@
         <v>30</v>
       </c>
       <c r="M105" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N105" t="n">
         <v>100</v>
@@ -7828,7 +7828,7 @@
         <v>50</v>
       </c>
       <c r="M142" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N142" t="n">
         <v>100</v>
@@ -8036,7 +8036,7 @@
         <v>100</v>
       </c>
       <c r="M146" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N146" t="n">
         <v>100</v>
@@ -8192,7 +8192,7 @@
         <v>100</v>
       </c>
       <c r="M149" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="N149" t="n">
         <v>100</v>
@@ -8400,7 +8400,7 @@
         <v>100</v>
       </c>
       <c r="M153" t="n">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="N153" t="n">
         <v>100</v>
@@ -8452,7 +8452,7 @@
         <v>100</v>
       </c>
       <c r="M154" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N154" t="n">
         <v>100</v>
@@ -12508,7 +12508,7 @@
         <v>100</v>
       </c>
       <c r="M232" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N232" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2778,7 +2778,7 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L45" t="n">
         <v>100</v>
@@ -4552,7 +4552,7 @@
         <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N79" t="n">
         <v>100</v>
@@ -7828,7 +7828,7 @@
         <v>50</v>
       </c>
       <c r="M142" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N142" t="n">
         <v>100</v>
@@ -7932,10 +7932,10 @@
         <v>30</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>71.66666666666666</v>
+        <v>88.33333333333331</v>
       </c>
     </row>
     <row r="145">
@@ -8006,10 +8006,10 @@
         <v>146</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="147">
@@ -8058,10 +8058,10 @@
         <v>147</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E147" t="n">
         <v>1</v>
@@ -8088,10 +8088,10 @@
         <v>100</v>
       </c>
       <c r="M147" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N147" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>77.49999999999999</v>
+        <v>93.33333333333331</v>
       </c>
     </row>
     <row r="148">
@@ -8192,7 +8192,7 @@
         <v>100</v>
       </c>
       <c r="M149" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="N149" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -4032,7 +4032,7 @@
         <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N69" t="n">
         <v>100</v>
@@ -4552,7 +4552,7 @@
         <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="N79" t="n">
         <v>100</v>
@@ -4708,10 +4708,10 @@
         <v>100</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="83">
@@ -4864,10 +4864,10 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>49.99999999999999</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="86">
@@ -4916,7 +4916,7 @@
         <v>100</v>
       </c>
       <c r="M86" t="n">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="N86" t="n">
         <v>100</v>
@@ -4968,7 +4968,7 @@
         <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N87" t="n">
         <v>100</v>
@@ -5020,7 +5020,7 @@
         <v>20</v>
       </c>
       <c r="M88" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="N88" t="n">
         <v>100</v>
@@ -7932,7 +7932,7 @@
         <v>30</v>
       </c>
       <c r="M144" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N144" t="n">
         <v>100</v>
@@ -8088,18 +8088,18 @@
         <v>100</v>
       </c>
       <c r="M147" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N147" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>93.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="148">
@@ -8192,7 +8192,7 @@
         <v>100</v>
       </c>
       <c r="M149" t="n">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="N149" t="n">
         <v>100</v>
@@ -12872,7 +12872,7 @@
         <v>100</v>
       </c>
       <c r="M239" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N239" t="n">
         <v>100</v>
@@ -13132,18 +13132,18 @@
         <v>100</v>
       </c>
       <c r="M244" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N244" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>97.49999999999997</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="245">
@@ -13184,7 +13184,7 @@
         <v>100</v>
       </c>
       <c r="M245" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N245" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2806,7 +2806,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
         <v>100</v>
@@ -4552,7 +4552,7 @@
         <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="N79" t="n">
         <v>100</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="N85" t="n">
         <v>100</v>
@@ -7458,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L135" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M135" t="n">
         <v>1</v>
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>45.83333333333333</v>
+        <v>47.49999999999999</v>
       </c>
     </row>
     <row r="136">
@@ -7880,10 +7880,10 @@
         <v>50</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>74.99999999999999</v>
+        <v>91.66666666666666</v>
       </c>
     </row>
     <row r="144">
@@ -7932,7 +7932,7 @@
         <v>30</v>
       </c>
       <c r="M144" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N144" t="n">
         <v>100</v>
@@ -8088,7 +8088,7 @@
         <v>100</v>
       </c>
       <c r="M147" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N147" t="n">
         <v>100</v>
@@ -11260,7 +11260,7 @@
         <v>100</v>
       </c>
       <c r="M208" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N208" t="n">
         <v>100</v>
@@ -12508,7 +12508,7 @@
         <v>100</v>
       </c>
       <c r="M232" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N232" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -704,7 +704,7 @@
         <v>100</v>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N5" t="n">
         <v>100</v>
@@ -756,7 +756,7 @@
         <v>100</v>
       </c>
       <c r="M6" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N6" t="n">
         <v>100</v>
@@ -808,7 +808,7 @@
         <v>100</v>
       </c>
       <c r="M7" t="n">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N7" t="n">
         <v>100</v>
@@ -964,7 +964,7 @@
         <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" t="n">
         <v>100</v>
@@ -1166,10 +1166,10 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M14" t="n">
         <v>137</v>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>84.99999999999997</v>
+        <v>86.66666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -1224,7 +1224,7 @@
         <v>100</v>
       </c>
       <c r="M15" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N15" t="n">
         <v>100</v>
@@ -1276,10 +1276,10 @@
         <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>67.49999999999999</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="17">
@@ -1328,7 +1328,7 @@
         <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
         <v>100</v>
@@ -1380,7 +1380,7 @@
         <v>100</v>
       </c>
       <c r="M18" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N18" t="n">
         <v>100</v>
@@ -1432,7 +1432,7 @@
         <v>100</v>
       </c>
       <c r="M19" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N19" t="n">
         <v>100</v>
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="N20" t="n">
         <v>100</v>
@@ -1536,7 +1536,7 @@
         <v>100</v>
       </c>
       <c r="M21" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N21" t="n">
         <v>100</v>
@@ -1744,7 +1744,7 @@
         <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N25" t="n">
         <v>100</v>
@@ -1784,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
         <v>12</v>
@@ -1796,7 +1796,7 @@
         <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
         <v>100</v>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>58.33333333333333</v>
+        <v>74.99999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1900,7 +1900,7 @@
         <v>100</v>
       </c>
       <c r="M28" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N28" t="n">
         <v>100</v>
@@ -1952,7 +1952,7 @@
         <v>100</v>
       </c>
       <c r="M29" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
         <v>100</v>
@@ -2108,7 +2108,7 @@
         <v>50</v>
       </c>
       <c r="M32" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N32" t="n">
         <v>100</v>
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N34" t="n">
         <v>100</v>
@@ -2368,10 +2368,10 @@
         <v>100</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>51.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="38">
@@ -2806,7 +2806,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
         <v>100</v>
@@ -2836,7 +2836,7 @@
         <v>100</v>
       </c>
       <c r="M46" t="n">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="N46" t="n">
         <v>100</v>
@@ -3460,7 +3460,7 @@
         <v>100</v>
       </c>
       <c r="M58" t="n">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="N58" t="n">
         <v>100</v>
@@ -3668,10 +3668,10 @@
         <v>100</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="63">
@@ -4084,7 +4084,7 @@
         <v>100</v>
       </c>
       <c r="M70" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N70" t="n">
         <v>100</v>
@@ -4240,7 +4240,7 @@
         <v>100</v>
       </c>
       <c r="M73" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N73" t="n">
         <v>100</v>
@@ -4292,7 +4292,7 @@
         <v>100</v>
       </c>
       <c r="M74" t="n">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="N74" t="n">
         <v>100</v>
@@ -4396,18 +4396,18 @@
         <v>100</v>
       </c>
       <c r="M76" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="N76" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>95.83333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="77">
@@ -4656,18 +4656,18 @@
         <v>100</v>
       </c>
       <c r="M81" t="n">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="N81" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>89.99999999999997</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="82">
@@ -4760,10 +4760,10 @@
         <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="N83" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>76.66666666666666</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="84">
@@ -4812,7 +4812,7 @@
         <v>60</v>
       </c>
       <c r="M84" t="n">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="N84" t="n">
         <v>100</v>
@@ -4858,10 +4858,10 @@
         <v>100</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M85" t="n">
         <v>101</v>
@@ -4875,7 +4875,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="86">
@@ -5280,7 +5280,7 @@
         <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N93" t="n">
         <v>100</v>
@@ -5436,18 +5436,18 @@
         <v>100</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="97">
@@ -6060,7 +6060,7 @@
         <v>100</v>
       </c>
       <c r="M108" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N108" t="n">
         <v>100</v>
@@ -8244,7 +8244,7 @@
         <v>100</v>
       </c>
       <c r="M150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N150" t="n">
         <v>100</v>
@@ -8348,7 +8348,7 @@
         <v>100</v>
       </c>
       <c r="M152" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N152" t="n">
         <v>100</v>
@@ -8920,7 +8920,7 @@
         <v>100</v>
       </c>
       <c r="M163" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N163" t="n">
         <v>100</v>
@@ -9284,7 +9284,7 @@
         <v>100</v>
       </c>
       <c r="M170" t="n">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="N170" t="n">
         <v>100</v>
@@ -9440,7 +9440,7 @@
         <v>100</v>
       </c>
       <c r="M173" t="n">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="N173" t="n">
         <v>100</v>
@@ -9544,7 +9544,7 @@
         <v>100</v>
       </c>
       <c r="M175" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N175" t="n">
         <v>100</v>
@@ -9804,7 +9804,7 @@
         <v>100</v>
       </c>
       <c r="M180" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="N180" t="n">
         <v>100</v>
@@ -9856,7 +9856,7 @@
         <v>100</v>
       </c>
       <c r="M181" t="n">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="N181" t="n">
         <v>100</v>
@@ -9960,7 +9960,7 @@
         <v>100</v>
       </c>
       <c r="M183" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N183" t="n">
         <v>100</v>
@@ -11052,7 +11052,7 @@
         <v>100</v>
       </c>
       <c r="M204" t="n">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="N204" t="n">
         <v>100</v>
@@ -11312,7 +11312,7 @@
         <v>100</v>
       </c>
       <c r="M209" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N209" t="n">
         <v>100</v>
@@ -12092,7 +12092,7 @@
         <v>100</v>
       </c>
       <c r="M224" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="N224" t="n">
         <v>100</v>
@@ -12144,7 +12144,7 @@
         <v>100</v>
       </c>
       <c r="M225" t="n">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="N225" t="n">
         <v>100</v>
@@ -12352,10 +12352,10 @@
         <v>100</v>
       </c>
       <c r="M229" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>58.33333333333333</v>
+        <v>74.99999999999999</v>
       </c>
     </row>
     <row r="230">
@@ -13132,7 +13132,7 @@
         <v>100</v>
       </c>
       <c r="M244" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N244" t="n">
         <v>100</v>
@@ -13444,7 +13444,7 @@
         <v>100</v>
       </c>
       <c r="M250" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="N250" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -674,10 +674,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -711,11 +711,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -726,10 +726,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -763,11 +763,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -1090,10 +1090,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -1127,11 +1127,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="14">
@@ -1194,7 +1194,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>100</v>
@@ -1246,10 +1246,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1283,11 +1283,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="17">
@@ -2338,10 +2338,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="38">
@@ -2598,10 +2598,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="43">
@@ -2806,7 +2806,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
         <v>100</v>
@@ -3378,10 +3378,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -3415,11 +3415,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="58">
@@ -3430,10 +3430,10 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="59">
@@ -3638,10 +3638,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -3675,11 +3675,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="63">
@@ -3846,10 +3846,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="67">
@@ -4262,10 +4262,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -4299,11 +4299,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="75">
@@ -4366,7 +4366,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>100</v>
@@ -4470,10 +4470,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>83.33333333333331</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="79">
@@ -4730,10 +4730,10 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="84">
@@ -4938,10 +4938,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
@@ -4975,11 +4975,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="88">
@@ -4990,10 +4990,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>78.33333333333333</v>
+        <v>86.66666666666666</v>
       </c>
     </row>
     <row r="89">
@@ -5302,10 +5302,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -5339,11 +5339,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="95">
@@ -5354,10 +5354,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -5391,11 +5391,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="96">
@@ -6290,10 +6290,10 @@
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -6327,11 +6327,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="114">
@@ -6550,10 +6550,10 @@
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -6587,11 +6587,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="119">
@@ -6706,7 +6706,7 @@
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
         <v>100</v>
@@ -7070,10 +7070,10 @@
         <v>127</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
@@ -7107,11 +7107,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="129">
@@ -8058,7 +8058,7 @@
         <v>147</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
         <v>100</v>
@@ -8162,7 +8162,7 @@
         <v>149</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
         <v>100</v>
@@ -8474,10 +8474,10 @@
         <v>155</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="156">
@@ -8838,7 +8838,7 @@
         <v>162</v>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D162" t="n">
         <v>100</v>
@@ -9150,10 +9150,10 @@
         <v>168</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -9187,11 +9187,11 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="169">
@@ -10970,10 +10970,10 @@
         <v>203</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -11011,7 +11011,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>73.33333333333331</v>
+        <v>89.99999999999997</v>
       </c>
     </row>
     <row r="204">
@@ -11438,10 +11438,10 @@
         <v>212</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D212" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -11475,11 +11475,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="213">
@@ -11594,10 +11594,10 @@
         <v>215</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="216">
@@ -11646,10 +11646,10 @@
         <v>216</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
@@ -11683,11 +11683,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="217">
@@ -11698,10 +11698,10 @@
         <v>217</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -11735,11 +11735,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="218">
@@ -12010,10 +12010,10 @@
         <v>223</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E223" t="n">
         <v>2</v>
@@ -12051,7 +12051,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="224">
@@ -12114,10 +12114,10 @@
         <v>225</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
@@ -12151,11 +12151,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="226">
@@ -12322,10 +12322,10 @@
         <v>229</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>74.99999999999999</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="230">
@@ -12530,10 +12530,10 @@
         <v>233</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -12567,11 +12567,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="234">
@@ -12946,10 +12946,10 @@
         <v>241</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E241" t="n">
         <v>1</v>
@@ -12987,7 +12987,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>83.33333333333331</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="242">
@@ -13102,7 +13102,7 @@
         <v>244</v>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D244" t="n">
         <v>100</v>
@@ -13414,10 +13414,10 @@
         <v>250</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E250" t="n">
         <v>1</v>
@@ -13451,11 +13451,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="251">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -646,7 +646,7 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" t="n">
         <v>100</v>
@@ -1166,10 +1166,10 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M14" t="n">
         <v>137</v>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>86.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="15">
@@ -1374,7 +1374,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
@@ -2004,7 +2004,7 @@
         <v>100</v>
       </c>
       <c r="M30" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
         <v>100</v>
@@ -4032,7 +4032,7 @@
         <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N69" t="n">
         <v>100</v>
@@ -4910,7 +4910,7 @@
         <v>100</v>
       </c>
       <c r="K86" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L86" t="n">
         <v>100</v>
@@ -5892,10 +5892,10 @@
         <v>100</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K105" t="n">
         <v>3</v>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>71.66666666666666</v>
+        <v>88.33333333333331</v>
       </c>
     </row>
     <row r="106">
@@ -6008,7 +6008,7 @@
         <v>100</v>
       </c>
       <c r="M107" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N107" t="n">
         <v>100</v>
@@ -12508,7 +12508,7 @@
         <v>100</v>
       </c>
       <c r="M232" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N232" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -1166,7 +1166,7 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
@@ -1218,7 +1218,7 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L15" t="n">
         <v>100</v>
@@ -2004,7 +2004,7 @@
         <v>100</v>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N30" t="n">
         <v>100</v>
@@ -2084,10 +2084,10 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>58.33333333333332</v>
+        <v>74.99999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -2240,10 +2240,10 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="36">
@@ -2830,7 +2830,7 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L46" t="n">
         <v>100</v>
@@ -4032,7 +4032,7 @@
         <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="N69" t="n">
         <v>100</v>
@@ -5632,10 +5632,10 @@
         <v>100</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" t="n">
         <v>8</v>
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>80</v>
+        <v>96.66666666666666</v>
       </c>
     </row>
     <row r="101">
@@ -5684,10 +5684,10 @@
         <v>100</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" t="n">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>70</v>
+        <v>86.66666666666666</v>
       </c>
     </row>
     <row r="102">
@@ -5736,10 +5736,10 @@
         <v>100</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" t="n">
         <v>3</v>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>71.66666666666666</v>
+        <v>88.33333333333331</v>
       </c>
     </row>
     <row r="103">
@@ -5788,10 +5788,10 @@
         <v>100</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K103" t="n">
         <v>4</v>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>73.33333333333331</v>
+        <v>89.99999999999997</v>
       </c>
     </row>
     <row r="104">
@@ -5840,10 +5840,10 @@
         <v>100</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K104" t="n">
         <v>5</v>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>75</v>
+        <v>91.66666666666666</v>
       </c>
     </row>
     <row r="105">
@@ -5944,10 +5944,10 @@
         <v>100</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K106" t="n">
         <v>7</v>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>78.33333333333331</v>
+        <v>94.99999999999997</v>
       </c>
     </row>
     <row r="107">
@@ -6008,7 +6008,7 @@
         <v>100</v>
       </c>
       <c r="M107" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N107" t="n">
         <v>100</v>
@@ -6736,7 +6736,7 @@
         <v>100</v>
       </c>
       <c r="M121" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="N121" t="n">
         <v>100</v>
@@ -7556,10 +7556,10 @@
         <v>100</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K137" t="n">
         <v>23</v>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>77.49999999999999</v>
+        <v>94.16666666666666</v>
       </c>
     </row>
     <row r="138">
@@ -7712,10 +7712,10 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K140" t="n">
         <v>23</v>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>53.33333333333332</v>
+        <v>69.99999999999999</v>
       </c>
     </row>
     <row r="141">
@@ -7926,10 +7926,10 @@
         <v>100</v>
       </c>
       <c r="K144" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L144" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M144" t="n">
         <v>61</v>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>88.33333333333331</v>
+        <v>91.66666666666666</v>
       </c>
     </row>
     <row r="145">
@@ -8192,7 +8192,7 @@
         <v>100</v>
       </c>
       <c r="M149" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N149" t="n">
         <v>100</v>
@@ -11542,10 +11542,10 @@
         <v>214</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
@@ -11583,7 +11583,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>75.83333333333331</v>
+        <v>84.16666666666666</v>
       </c>
     </row>
     <row r="215">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2004,7 +2004,7 @@
         <v>100</v>
       </c>
       <c r="M30" t="n">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="N30" t="n">
         <v>100</v>
@@ -4032,7 +4032,7 @@
         <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="N69" t="n">
         <v>100</v>
@@ -5146,10 +5146,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -5183,11 +5183,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="92">
@@ -6736,7 +6736,7 @@
         <v>100</v>
       </c>
       <c r="M121" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N121" t="n">
         <v>100</v>
@@ -7828,7 +7828,7 @@
         <v>50</v>
       </c>
       <c r="M142" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="N142" t="n">
         <v>100</v>
@@ -7932,7 +7932,7 @@
         <v>50</v>
       </c>
       <c r="M144" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N144" t="n">
         <v>100</v>
@@ -8036,7 +8036,7 @@
         <v>100</v>
       </c>
       <c r="M146" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N146" t="n">
         <v>100</v>
@@ -8296,7 +8296,7 @@
         <v>100</v>
       </c>
       <c r="M151" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N151" t="n">
         <v>100</v>
@@ -8688,10 +8688,10 @@
         <v>100</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8700,10 +8700,10 @@
         <v>100</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K159" t="n">
         <v>34</v>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>49.99999999999999</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="160">
@@ -12508,7 +12508,7 @@
         <v>100</v>
       </c>
       <c r="M232" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N232" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -1166,7 +1166,7 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
@@ -1218,7 +1218,7 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" t="n">
         <v>100</v>
@@ -6736,7 +6736,7 @@
         <v>100</v>
       </c>
       <c r="M121" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="N121" t="n">
         <v>100</v>
@@ -6788,10 +6788,10 @@
         <v>100</v>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N122" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>84.16666666666666</v>
+        <v>85.83333333333331</v>
       </c>
     </row>
     <row r="123">
@@ -7048,10 +7048,10 @@
         <v>100</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>83.33333333333331</v>
+        <v>84.16666666666666</v>
       </c>
     </row>
     <row r="128">
@@ -7828,7 +7828,7 @@
         <v>50</v>
       </c>
       <c r="M142" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="N142" t="n">
         <v>100</v>
@@ -7880,7 +7880,7 @@
         <v>50</v>
       </c>
       <c r="M143" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N143" t="n">
         <v>100</v>
@@ -8036,7 +8036,7 @@
         <v>100</v>
       </c>
       <c r="M146" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N146" t="n">
         <v>100</v>
@@ -11964,10 +11964,10 @@
         <v>100</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -11999,7 +11999,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="223">
@@ -12508,7 +12508,7 @@
         <v>100</v>
       </c>
       <c r="M232" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="N232" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2182,10 +2182,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M34" t="n">
         <v>61</v>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>51.66666666666666</v>
+        <v>63.33333333333333</v>
       </c>
     </row>
     <row r="35">
@@ -7048,10 +7048,10 @@
         <v>100</v>
       </c>
       <c r="M127" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N127" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>84.16666666666666</v>
+        <v>89.99999999999997</v>
       </c>
     </row>
     <row r="128">
@@ -10890,10 +10890,10 @@
         <v>100</v>
       </c>
       <c r="K201" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L201" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M201" t="n">
         <v>29</v>
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>88.33333333333331</v>
+        <v>94.99999999999997</v>
       </c>
     </row>
     <row r="202">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -1166,7 +1166,7 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
@@ -1454,10 +1454,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1491,11 +1491,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="21">
@@ -2206,10 +2206,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M34" t="n">
         <v>61</v>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>63.33333333333333</v>
+        <v>69.99999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -6788,10 +6788,10 @@
         <v>100</v>
       </c>
       <c r="M122" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N122" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>85.83333333333331</v>
+        <v>97.49999999999997</v>
       </c>
     </row>
     <row r="123">
@@ -6892,10 +6892,10 @@
         <v>60</v>
       </c>
       <c r="M124" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="N124" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>80.83333333333331</v>
+        <v>93.33333333333331</v>
       </c>
     </row>
     <row r="125">
@@ -7048,10 +7048,10 @@
         <v>100</v>
       </c>
       <c r="M127" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N127" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>89.99999999999997</v>
+        <v>95.83333333333331</v>
       </c>
     </row>
     <row r="128">
@@ -7452,16 +7452,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L135" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M135" t="n">
         <v>1</v>
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>47.49999999999999</v>
+        <v>67.49999999999999</v>
       </c>
     </row>
     <row r="136">
@@ -7828,7 +7828,7 @@
         <v>50</v>
       </c>
       <c r="M142" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N142" t="n">
         <v>100</v>
@@ -7880,7 +7880,7 @@
         <v>50</v>
       </c>
       <c r="M143" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="N143" t="n">
         <v>100</v>
@@ -7932,7 +7932,7 @@
         <v>50</v>
       </c>
       <c r="M144" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="N144" t="n">
         <v>100</v>
@@ -8192,7 +8192,7 @@
         <v>100</v>
       </c>
       <c r="M149" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N149" t="n">
         <v>100</v>
@@ -8584,10 +8584,10 @@
         <v>100</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K157" t="n">
         <v>51</v>
@@ -8619,7 +8619,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="158">
@@ -13074,7 +13074,7 @@
         <v>100</v>
       </c>
       <c r="K243" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L243" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2212,7 +2212,7 @@
         <v>70</v>
       </c>
       <c r="M34" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="N34" t="n">
         <v>100</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>31.66666666666666</v>
+        <v>48.33333333333333</v>
       </c>
     </row>
     <row r="127">
@@ -7932,7 +7932,7 @@
         <v>50</v>
       </c>
       <c r="M144" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="N144" t="n">
         <v>100</v>
@@ -11490,7 +11490,7 @@
         <v>213</v>
       </c>
       <c r="C213" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D213" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -1328,7 +1328,7 @@
         <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N17" t="n">
         <v>100</v>
@@ -1766,10 +1766,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>74.99999999999999</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="27">
@@ -2356,10 +2356,10 @@
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
         <v>47</v>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="38">
@@ -2408,10 +2408,10 @@
         <v>100</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
         <v>9</v>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>81.66666666666666</v>
+        <v>98.33333333333331</v>
       </c>
     </row>
     <row r="39">
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
         <v>21</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="40">
@@ -2512,10 +2512,10 @@
         <v>100</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
         <v>90</v>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="41">
@@ -2564,10 +2564,10 @@
         <v>100</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
         <v>31</v>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="42">
@@ -2616,10 +2616,10 @@
         <v>100</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
         <v>39</v>
@@ -2635,11 +2635,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="43">
@@ -2668,10 +2668,10 @@
         <v>100</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
         <v>19</v>
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="44">
@@ -5014,10 +5014,10 @@
         <v>100</v>
       </c>
       <c r="K88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L88" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M88" t="n">
         <v>119</v>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>86.66666666666666</v>
+        <v>93.33333333333331</v>
       </c>
     </row>
     <row r="89">
@@ -6788,18 +6788,18 @@
         <v>100</v>
       </c>
       <c r="M122" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N122" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>97.49999999999997</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="123">
@@ -6810,10 +6810,10 @@
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -6851,7 +6851,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>67.49999999999999</v>
+        <v>75.83333333333331</v>
       </c>
     </row>
     <row r="124">
@@ -6886,10 +6886,10 @@
         <v>100</v>
       </c>
       <c r="K124" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L124" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M124" t="n">
         <v>71</v>
@@ -6903,7 +6903,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>93.33333333333331</v>
+        <v>96.66666666666666</v>
       </c>
     </row>
     <row r="125">
@@ -6914,10 +6914,10 @@
         <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="126">
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
         <v>100</v>
@@ -7048,18 +7048,18 @@
         <v>100</v>
       </c>
       <c r="M127" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N127" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>95.83333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="128">
@@ -7880,7 +7880,7 @@
         <v>50</v>
       </c>
       <c r="M143" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="N143" t="n">
         <v>100</v>
@@ -7932,7 +7932,7 @@
         <v>50</v>
       </c>
       <c r="M144" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="N144" t="n">
         <v>100</v>
@@ -8244,7 +8244,7 @@
         <v>100</v>
       </c>
       <c r="M150" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N150" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -6944,7 +6944,7 @@
         <v>100</v>
       </c>
       <c r="M125" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N125" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -6788,7 +6788,7 @@
         <v>100</v>
       </c>
       <c r="M122" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="N122" t="n">
         <v>100</v>
@@ -6944,7 +6944,7 @@
         <v>100</v>
       </c>
       <c r="M125" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="N125" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -6788,7 +6788,7 @@
         <v>100</v>
       </c>
       <c r="M122" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="N122" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2206,13 +2206,13 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M34" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N34" t="n">
         <v>100</v>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>69.99999999999999</v>
+        <v>71.66666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -6788,7 +6788,7 @@
         <v>100</v>
       </c>
       <c r="M122" t="n">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="N122" t="n">
         <v>100</v>
@@ -7048,7 +7048,7 @@
         <v>100</v>
       </c>
       <c r="M127" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N127" t="n">
         <v>100</v>
@@ -7458,7 +7458,7 @@
         <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L135" t="n">
         <v>100</v>
@@ -8088,7 +8088,7 @@
         <v>100</v>
       </c>
       <c r="M147" t="n">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N147" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2212,7 +2212,7 @@
         <v>80</v>
       </c>
       <c r="M34" t="n">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="N34" t="n">
         <v>100</v>
@@ -2546,10 +2546,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>83.33333333333331</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="42">
@@ -4470,10 +4470,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -4507,11 +4507,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="79">
@@ -5256,10 +5256,10 @@
         <v>100</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5287,11 +5287,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="94">
@@ -6966,10 +6966,10 @@
         <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -6984,22 +6984,22 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
         <v>100</v>
       </c>
       <c r="K126" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L126" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>48.33333333333333</v>
+        <v>74.99999999999999</v>
       </c>
     </row>
     <row r="127">
@@ -13288,7 +13288,7 @@
         <v>100</v>
       </c>
       <c r="M247" t="n">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="N247" t="n">
         <v>100</v>
@@ -13310,13 +13310,13 @@
         <v>248</v>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
         <v>100</v>
@@ -13340,7 +13340,7 @@
         <v>80</v>
       </c>
       <c r="M248" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N248" t="n">
         <v>100</v>
@@ -13351,7 +13351,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>96.66666666666666</v>
+        <v>88.33333333333333</v>
       </c>
     </row>
     <row r="249">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2182,10 +2182,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2206,13 +2206,13 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L34" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M34" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N34" t="n">
         <v>100</v>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>71.66666666666666</v>
+        <v>81.66666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -2414,10 +2414,10 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M38" t="n">
         <v>68</v>
@@ -2427,11 +2427,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>98.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="39">
@@ -6810,10 +6810,10 @@
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -6851,7 +6851,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>75.83333333333331</v>
+        <v>84.16666666666666</v>
       </c>
     </row>
     <row r="124">
@@ -6886,10 +6886,10 @@
         <v>100</v>
       </c>
       <c r="K124" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L124" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M124" t="n">
         <v>71</v>
@@ -6903,7 +6903,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>96.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="125">
@@ -6990,13 +6990,13 @@
         <v>100</v>
       </c>
       <c r="K126" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L126" t="n">
         <v>100</v>
       </c>
       <c r="M126" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N126" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2182,7 +2182,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>100</v>
@@ -2546,10 +2546,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -2583,11 +2583,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="42">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P252"/>
+  <dimension ref="A1:P253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
         <v>100</v>
       </c>
       <c r="M2" t="n">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="N2" t="n">
         <v>100</v>
@@ -600,7 +600,7 @@
         <v>100</v>
       </c>
       <c r="M3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N3" t="n">
         <v>100</v>
@@ -652,7 +652,7 @@
         <v>100</v>
       </c>
       <c r="M4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
         <v>100</v>
@@ -750,13 +750,13 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" t="n">
         <v>100</v>
       </c>
       <c r="M6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>100</v>
@@ -808,7 +808,7 @@
         <v>100</v>
       </c>
       <c r="M7" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="N7" t="n">
         <v>100</v>
@@ -860,7 +860,7 @@
         <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N8" t="n">
         <v>100</v>
@@ -912,7 +912,7 @@
         <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="N9" t="n">
         <v>100</v>
@@ -964,7 +964,7 @@
         <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>100</v>
@@ -1016,7 +1016,7 @@
         <v>100</v>
       </c>
       <c r="M11" t="n">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="N11" t="n">
         <v>100</v>
@@ -1044,10 +1044,10 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1062,24 +1062,24 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L12" t="n">
         <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="N12" t="n">
         <v>100</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="13">
@@ -1120,7 +1120,7 @@
         <v>100</v>
       </c>
       <c r="M13" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="N13" t="n">
         <v>100</v>
@@ -1142,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1166,13 +1166,13 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="N14" t="n">
         <v>100</v>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="15">
@@ -1206,10 +1206,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1218,24 +1218,24 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="L15" t="n">
         <v>100</v>
       </c>
       <c r="M15" t="n">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="N15" t="n">
         <v>100</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="16">
@@ -1276,7 +1276,7 @@
         <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N16" t="n">
         <v>100</v>
@@ -1328,7 +1328,7 @@
         <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N17" t="n">
         <v>100</v>
@@ -1374,13 +1374,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
       </c>
       <c r="M18" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N18" t="n">
         <v>100</v>
@@ -1426,13 +1426,13 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
       </c>
       <c r="M19" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N19" t="n">
         <v>100</v>
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N20" t="n">
         <v>100</v>
@@ -1530,7 +1530,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L21" t="n">
         <v>100</v>
@@ -1588,7 +1588,7 @@
         <v>100</v>
       </c>
       <c r="M22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
         <v>100</v>
@@ -1634,13 +1634,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L23" t="n">
         <v>100</v>
       </c>
       <c r="M23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
         <v>100</v>
@@ -1692,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="M24" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N24" t="n">
         <v>100</v>
@@ -1738,13 +1738,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L25" t="n">
         <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N25" t="n">
         <v>100</v>
@@ -1778,10 +1778,10 @@
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1796,18 +1796,18 @@
         <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
         <v>100</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="27">
@@ -1848,7 +1848,7 @@
         <v>100</v>
       </c>
       <c r="M27" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N27" t="n">
         <v>100</v>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>100</v>
@@ -1900,7 +1900,7 @@
         <v>100</v>
       </c>
       <c r="M28" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N28" t="n">
         <v>100</v>
@@ -1952,7 +1952,7 @@
         <v>100</v>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N29" t="n">
         <v>100</v>
@@ -1992,7 +1992,7 @@
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>100</v>
@@ -2004,14 +2004,14 @@
         <v>100</v>
       </c>
       <c r="M30" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N30" t="n">
         <v>100</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -2056,7 +2056,7 @@
         <v>100</v>
       </c>
       <c r="M31" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N31" t="n">
         <v>100</v>
@@ -2090,10 +2090,10 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2108,7 +2108,7 @@
         <v>50</v>
       </c>
       <c r="M32" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N32" t="n">
         <v>100</v>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>74.99999999999999</v>
+        <v>91.66666666666666</v>
       </c>
     </row>
     <row r="33">
@@ -2154,13 +2154,13 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L33" t="n">
         <v>100</v>
       </c>
       <c r="M33" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N33" t="n">
         <v>100</v>
@@ -2188,10 +2188,10 @@
         <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2212,7 +2212,7 @@
         <v>90</v>
       </c>
       <c r="M34" t="n">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="N34" t="n">
         <v>100</v>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>81.66666666666666</v>
+        <v>98.33333333333331</v>
       </c>
     </row>
     <row r="35">
@@ -2246,10 +2246,10 @@
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2271,11 +2271,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="36">
@@ -2316,7 +2316,7 @@
         <v>100</v>
       </c>
       <c r="M36" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N36" t="n">
         <v>100</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
@@ -2362,20 +2362,20 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L37" t="n">
         <v>100</v>
       </c>
       <c r="M37" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N37" t="n">
         <v>100</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -2420,7 +2420,7 @@
         <v>100</v>
       </c>
       <c r="M38" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N38" t="n">
         <v>100</v>
@@ -2454,10 +2454,10 @@
         <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -2472,7 +2472,7 @@
         <v>100</v>
       </c>
       <c r="M39" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="N39" t="n">
         <v>100</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="40">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
@@ -2524,7 +2524,7 @@
         <v>100</v>
       </c>
       <c r="M40" t="n">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N40" t="n">
         <v>100</v>
@@ -2576,7 +2576,7 @@
         <v>100</v>
       </c>
       <c r="M41" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N41" t="n">
         <v>100</v>
@@ -2628,7 +2628,7 @@
         <v>100</v>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N42" t="n">
         <v>100</v>
@@ -2662,7 +2662,7 @@
         <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>100</v>
@@ -2680,14 +2680,14 @@
         <v>100</v>
       </c>
       <c r="M43" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N43" t="n">
         <v>100</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -2732,7 +2732,7 @@
         <v>100</v>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N44" t="n">
         <v>100</v>
@@ -2784,7 +2784,7 @@
         <v>100</v>
       </c>
       <c r="M45" t="n">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="N45" t="n">
         <v>100</v>
@@ -2830,13 +2830,13 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L46" t="n">
         <v>100</v>
       </c>
       <c r="M46" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N46" t="n">
         <v>100</v>
@@ -2888,7 +2888,7 @@
         <v>100</v>
       </c>
       <c r="M47" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N47" t="n">
         <v>100</v>
@@ -2992,7 +2992,7 @@
         <v>100</v>
       </c>
       <c r="M49" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N49" t="n">
         <v>100</v>
@@ -3066,10 +3066,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>100</v>
       </c>
       <c r="M51" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N51" t="n">
         <v>100</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="52">
@@ -3148,7 +3148,7 @@
         <v>100</v>
       </c>
       <c r="M52" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N52" t="n">
         <v>100</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="M53" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N53" t="n">
         <v>100</v>
@@ -3252,7 +3252,7 @@
         <v>100</v>
       </c>
       <c r="M54" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N54" t="n">
         <v>100</v>
@@ -3304,7 +3304,7 @@
         <v>100</v>
       </c>
       <c r="M55" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N55" t="n">
         <v>100</v>
@@ -3460,7 +3460,7 @@
         <v>100</v>
       </c>
       <c r="M58" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N58" t="n">
         <v>100</v>
@@ -3482,7 +3482,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>100</v>
@@ -3506,13 +3506,13 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L59" t="n">
         <v>100</v>
       </c>
       <c r="M59" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N59" t="n">
         <v>100</v>
@@ -3564,7 +3564,7 @@
         <v>100</v>
       </c>
       <c r="M60" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N60" t="n">
         <v>100</v>
@@ -3610,13 +3610,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L61" t="n">
         <v>100</v>
       </c>
       <c r="M61" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N61" t="n">
         <v>100</v>
@@ -3638,10 +3638,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -3675,11 +3675,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="63">
@@ -3772,7 +3772,7 @@
         <v>100</v>
       </c>
       <c r="M64" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N64" t="n">
         <v>100</v>
@@ -3818,13 +3818,13 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L65" t="n">
         <v>100</v>
       </c>
       <c r="M65" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N65" t="n">
         <v>100</v>
@@ -3922,13 +3922,13 @@
         <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L67" t="n">
         <v>100</v>
       </c>
       <c r="M67" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N67" t="n">
         <v>100</v>
@@ -3980,7 +3980,7 @@
         <v>100</v>
       </c>
       <c r="M68" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N68" t="n">
         <v>100</v>
@@ -4032,7 +4032,7 @@
         <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="N69" t="n">
         <v>100</v>
@@ -4084,7 +4084,7 @@
         <v>100</v>
       </c>
       <c r="M70" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N70" t="n">
         <v>100</v>
@@ -4124,26 +4124,26 @@
         <v>100</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>100</v>
       </c>
       <c r="K71" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L71" t="n">
         <v>100</v>
       </c>
       <c r="M71" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N71" t="n">
         <v>100</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -4158,10 +4158,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -4188,18 +4188,18 @@
         <v>100</v>
       </c>
       <c r="M72" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N72" t="n">
         <v>100</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="73">
@@ -4234,13 +4234,13 @@
         <v>100</v>
       </c>
       <c r="K73" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L73" t="n">
         <v>100</v>
       </c>
       <c r="M73" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N73" t="n">
         <v>100</v>
@@ -4292,7 +4292,7 @@
         <v>100</v>
       </c>
       <c r="M74" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="N74" t="n">
         <v>100</v>
@@ -4344,7 +4344,7 @@
         <v>50</v>
       </c>
       <c r="M75" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N75" t="n">
         <v>100</v>
@@ -4390,13 +4390,13 @@
         <v>100</v>
       </c>
       <c r="K76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L76" t="n">
         <v>100</v>
       </c>
       <c r="M76" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N76" t="n">
         <v>100</v>
@@ -4442,13 +4442,13 @@
         <v>100</v>
       </c>
       <c r="K77" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L77" t="n">
         <v>100</v>
       </c>
       <c r="M77" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N77" t="n">
         <v>100</v>
@@ -4500,7 +4500,7 @@
         <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N78" t="n">
         <v>100</v>
@@ -4534,10 +4534,10 @@
         <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -4552,18 +4552,18 @@
         <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N79" t="n">
         <v>100</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="80">
@@ -4598,13 +4598,13 @@
         <v>100</v>
       </c>
       <c r="K80" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L80" t="n">
         <v>100</v>
       </c>
       <c r="M80" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N80" t="n">
         <v>100</v>
@@ -4656,7 +4656,7 @@
         <v>100</v>
       </c>
       <c r="M81" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N81" t="n">
         <v>100</v>
@@ -4690,10 +4690,10 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -4708,18 +4708,18 @@
         <v>100</v>
       </c>
       <c r="M82" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N82" t="n">
         <v>100</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="83">
@@ -4760,7 +4760,7 @@
         <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N83" t="n">
         <v>100</v>
@@ -4812,7 +4812,7 @@
         <v>60</v>
       </c>
       <c r="M84" t="n">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N84" t="n">
         <v>100</v>
@@ -4846,10 +4846,10 @@
         <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -4875,7 +4875,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="86">
@@ -4916,7 +4916,7 @@
         <v>100</v>
       </c>
       <c r="M86" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N86" t="n">
         <v>100</v>
@@ -4962,13 +4962,13 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L87" t="n">
         <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N87" t="n">
         <v>100</v>
@@ -5020,7 +5020,7 @@
         <v>60</v>
       </c>
       <c r="M88" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N88" t="n">
         <v>100</v>
@@ -5072,7 +5072,7 @@
         <v>100</v>
       </c>
       <c r="M89" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="N89" t="n">
         <v>100</v>
@@ -5124,7 +5124,7 @@
         <v>100</v>
       </c>
       <c r="M90" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N90" t="n">
         <v>100</v>
@@ -5176,7 +5176,7 @@
         <v>100</v>
       </c>
       <c r="M91" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N91" t="n">
         <v>100</v>
@@ -5222,13 +5222,13 @@
         <v>100</v>
       </c>
       <c r="K92" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L92" t="n">
         <v>100</v>
       </c>
       <c r="M92" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="N92" t="n">
         <v>100</v>
@@ -5280,7 +5280,7 @@
         <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="N93" t="n">
         <v>100</v>
@@ -5332,7 +5332,7 @@
         <v>100</v>
       </c>
       <c r="M94" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N94" t="n">
         <v>100</v>
@@ -5384,7 +5384,7 @@
         <v>100</v>
       </c>
       <c r="M95" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N95" t="n">
         <v>100</v>
@@ -5436,7 +5436,7 @@
         <v>100</v>
       </c>
       <c r="M96" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N96" t="n">
         <v>100</v>
@@ -5488,7 +5488,7 @@
         <v>100</v>
       </c>
       <c r="M97" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N97" t="n">
         <v>100</v>
@@ -5540,7 +5540,7 @@
         <v>100</v>
       </c>
       <c r="M98" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N98" t="n">
         <v>100</v>
@@ -5592,7 +5592,7 @@
         <v>100</v>
       </c>
       <c r="M99" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N99" t="n">
         <v>100</v>
@@ -5620,10 +5620,10 @@
         <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5644,7 +5644,7 @@
         <v>80</v>
       </c>
       <c r="M100" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N100" t="n">
         <v>100</v>
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>96.66666666666666</v>
+        <v>79.99999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -5696,7 +5696,7 @@
         <v>20</v>
       </c>
       <c r="M101" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N101" t="n">
         <v>100</v>
@@ -5742,13 +5742,13 @@
         <v>100</v>
       </c>
       <c r="K102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M102" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N102" t="n">
         <v>100</v>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>88.33333333333331</v>
+        <v>86.66666666666666</v>
       </c>
     </row>
     <row r="103">
@@ -5800,7 +5800,7 @@
         <v>40</v>
       </c>
       <c r="M103" t="n">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="N103" t="n">
         <v>100</v>
@@ -5852,7 +5852,7 @@
         <v>50</v>
       </c>
       <c r="M104" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N104" t="n">
         <v>100</v>
@@ -5886,7 +5886,7 @@
         <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>100</v>
@@ -5904,7 +5904,7 @@
         <v>30</v>
       </c>
       <c r="M105" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="N105" t="n">
         <v>100</v>
@@ -5950,13 +5950,13 @@
         <v>100</v>
       </c>
       <c r="K106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L106" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M106" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N106" t="n">
         <v>100</v>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>94.99999999999997</v>
+        <v>93.33333333333331</v>
       </c>
     </row>
     <row r="107">
@@ -6008,7 +6008,7 @@
         <v>100</v>
       </c>
       <c r="M107" t="n">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="N107" t="n">
         <v>100</v>
@@ -6060,7 +6060,7 @@
         <v>100</v>
       </c>
       <c r="M108" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N108" t="n">
         <v>100</v>
@@ -6112,7 +6112,7 @@
         <v>90</v>
       </c>
       <c r="M109" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="N109" t="n">
         <v>100</v>
@@ -6164,7 +6164,7 @@
         <v>100</v>
       </c>
       <c r="M110" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N110" t="n">
         <v>100</v>
@@ -6216,7 +6216,7 @@
         <v>100</v>
       </c>
       <c r="M111" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N111" t="n">
         <v>100</v>
@@ -6314,13 +6314,13 @@
         <v>100</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L113" t="n">
         <v>100</v>
       </c>
       <c r="M113" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N113" t="n">
         <v>100</v>
@@ -6354,10 +6354,10 @@
         <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -6372,18 +6372,18 @@
         <v>100</v>
       </c>
       <c r="M114" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N114" t="n">
         <v>100</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="115">
@@ -6424,7 +6424,7 @@
         <v>100</v>
       </c>
       <c r="M115" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N115" t="n">
         <v>100</v>
@@ -6476,7 +6476,7 @@
         <v>100</v>
       </c>
       <c r="M116" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N116" t="n">
         <v>100</v>
@@ -6528,7 +6528,7 @@
         <v>100</v>
       </c>
       <c r="M117" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="N117" t="n">
         <v>100</v>
@@ -6580,7 +6580,7 @@
         <v>100</v>
       </c>
       <c r="M118" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="N118" t="n">
         <v>100</v>
@@ -6632,7 +6632,7 @@
         <v>100</v>
       </c>
       <c r="M119" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N119" t="n">
         <v>100</v>
@@ -6678,13 +6678,13 @@
         <v>100</v>
       </c>
       <c r="K120" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L120" t="n">
         <v>100</v>
       </c>
       <c r="M120" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N120" t="n">
         <v>100</v>
@@ -6736,7 +6736,7 @@
         <v>100</v>
       </c>
       <c r="M121" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="N121" t="n">
         <v>100</v>
@@ -6758,10 +6758,10 @@
         <v>121</v>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -6788,18 +6788,18 @@
         <v>100</v>
       </c>
       <c r="M122" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="N122" t="n">
         <v>100</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="123">
@@ -6874,7 +6874,7 @@
         <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>100</v>
@@ -6886,20 +6886,20 @@
         <v>100</v>
       </c>
       <c r="K124" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L124" t="n">
         <v>100</v>
       </c>
       <c r="M124" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N124" t="n">
         <v>100</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -6944,7 +6944,7 @@
         <v>100</v>
       </c>
       <c r="M125" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="N125" t="n">
         <v>100</v>
@@ -6966,10 +6966,10 @@
         <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -6978,10 +6978,10 @@
         <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -6990,13 +6990,13 @@
         <v>100</v>
       </c>
       <c r="K126" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L126" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M126" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N126" t="n">
         <v>100</v>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>74.99999999999999</v>
+        <v>89.99999999999997</v>
       </c>
     </row>
     <row r="127">
@@ -7024,10 +7024,10 @@
         <v>100</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7055,11 +7055,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>99.99999999999997</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="128">
@@ -7100,7 +7100,7 @@
         <v>100</v>
       </c>
       <c r="M128" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N128" t="n">
         <v>100</v>
@@ -7152,7 +7152,7 @@
         <v>100</v>
       </c>
       <c r="M129" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N129" t="n">
         <v>100</v>
@@ -7198,13 +7198,13 @@
         <v>100</v>
       </c>
       <c r="K130" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L130" t="n">
         <v>100</v>
       </c>
       <c r="M130" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N130" t="n">
         <v>100</v>
@@ -7250,13 +7250,13 @@
         <v>100</v>
       </c>
       <c r="K131" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L131" t="n">
         <v>100</v>
       </c>
       <c r="M131" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="N131" t="n">
         <v>100</v>
@@ -7308,7 +7308,7 @@
         <v>100</v>
       </c>
       <c r="M132" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N132" t="n">
         <v>100</v>
@@ -7360,7 +7360,7 @@
         <v>100</v>
       </c>
       <c r="M133" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N133" t="n">
         <v>100</v>
@@ -7412,7 +7412,7 @@
         <v>100</v>
       </c>
       <c r="M134" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N134" t="n">
         <v>100</v>
@@ -7446,10 +7446,10 @@
         <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -7458,7 +7458,7 @@
         <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L135" t="n">
         <v>100</v>
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>67.49999999999999</v>
+        <v>84.16666666666666</v>
       </c>
     </row>
     <row r="136">
@@ -7510,7 +7510,7 @@
         <v>100</v>
       </c>
       <c r="K136" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L136" t="n">
         <v>100</v>
@@ -7614,13 +7614,13 @@
         <v>100</v>
       </c>
       <c r="K138" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L138" t="n">
         <v>100</v>
       </c>
       <c r="M138" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N138" t="n">
         <v>100</v>
@@ -7706,10 +7706,10 @@
         <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -7718,16 +7718,16 @@
         <v>100</v>
       </c>
       <c r="K140" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L140" t="n">
         <v>100</v>
       </c>
       <c r="M140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N140" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>69.99999999999999</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141">
@@ -7828,7 +7828,7 @@
         <v>50</v>
       </c>
       <c r="M142" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N142" t="n">
         <v>100</v>
@@ -7899,13 +7899,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -7920,22 +7920,22 @@
         <v>100</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L144" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M144" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>91.66666666666666</v>
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="145">
@@ -7951,7 +7951,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" t="n">
         <v>2</v>
@@ -7978,24 +7978,24 @@
         <v>100</v>
       </c>
       <c r="K145" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L145" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M145" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="N145" t="n">
         <v>100</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666666</v>
       </c>
     </row>
     <row r="146">
@@ -8003,7 +8003,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" t="n">
         <v>2</v>
@@ -8030,20 +8030,20 @@
         <v>100</v>
       </c>
       <c r="K146" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L146" t="n">
         <v>100</v>
       </c>
       <c r="M146" t="n">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="N146" t="n">
         <v>100</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P146" t="n">
@@ -8055,10 +8055,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
         <v>100</v>
@@ -8082,20 +8082,20 @@
         <v>100</v>
       </c>
       <c r="K147" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L147" t="n">
         <v>100</v>
       </c>
       <c r="M147" t="n">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="N147" t="n">
         <v>100</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P147" t="n">
@@ -8107,7 +8107,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" t="n">
         <v>2</v>
@@ -8134,13 +8134,13 @@
         <v>100</v>
       </c>
       <c r="K148" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="L148" t="n">
         <v>100</v>
       </c>
       <c r="M148" t="n">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="N148" t="n">
         <v>100</v>
@@ -8159,10 +8159,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
         <v>100</v>
@@ -8186,13 +8186,13 @@
         <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="L149" t="n">
         <v>100</v>
       </c>
       <c r="M149" t="n">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="N149" t="n">
         <v>100</v>
@@ -8211,10 +8211,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
         <v>100</v>
@@ -8238,13 +8238,13 @@
         <v>100</v>
       </c>
       <c r="K150" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="L150" t="n">
         <v>100</v>
       </c>
       <c r="M150" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="N150" t="n">
         <v>100</v>
@@ -8263,10 +8263,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D151" t="n">
         <v>100</v>
@@ -8290,13 +8290,13 @@
         <v>100</v>
       </c>
       <c r="K151" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L151" t="n">
         <v>100</v>
       </c>
       <c r="M151" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N151" t="n">
         <v>100</v>
@@ -8315,10 +8315,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D152" t="n">
         <v>100</v>
@@ -8342,13 +8342,13 @@
         <v>100</v>
       </c>
       <c r="K152" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L152" t="n">
         <v>100</v>
       </c>
       <c r="M152" t="n">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="N152" t="n">
         <v>100</v>
@@ -8367,10 +8367,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
         <v>100</v>
@@ -8394,13 +8394,13 @@
         <v>100</v>
       </c>
       <c r="K153" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="L153" t="n">
         <v>100</v>
       </c>
       <c r="M153" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="N153" t="n">
         <v>100</v>
@@ -8419,10 +8419,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" t="n">
         <v>100</v>
@@ -8446,13 +8446,13 @@
         <v>100</v>
       </c>
       <c r="K154" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="L154" t="n">
         <v>100</v>
       </c>
       <c r="M154" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N154" t="n">
         <v>100</v>
@@ -8471,13 +8471,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -8498,16 +8498,16 @@
         <v>100</v>
       </c>
       <c r="K155" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L155" t="n">
         <v>100</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>83.33333333333331</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="156">
@@ -8523,10 +8523,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D156" t="n">
         <v>100</v>
@@ -8550,7 +8550,7 @@
         <v>100</v>
       </c>
       <c r="K156" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L156" t="n">
         <v>100</v>
@@ -8575,10 +8575,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" t="n">
         <v>100</v>
@@ -8590,10 +8590,10 @@
         <v>100</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -8602,7 +8602,7 @@
         <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L157" t="n">
         <v>100</v>
@@ -8619,7 +8619,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>66.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="158">
@@ -8627,7 +8627,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158" t="n">
         <v>2</v>
@@ -8654,7 +8654,7 @@
         <v>100</v>
       </c>
       <c r="K158" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="L158" t="n">
         <v>100</v>
@@ -8679,10 +8679,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
         <v>100</v>
@@ -8706,7 +8706,7 @@
         <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L159" t="n">
         <v>100</v>
@@ -8731,10 +8731,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" t="n">
         <v>100</v>
@@ -8758,7 +8758,7 @@
         <v>100</v>
       </c>
       <c r="K160" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L160" t="n">
         <v>100</v>
@@ -8783,7 +8783,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161" t="n">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>100</v>
       </c>
       <c r="K161" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L161" t="n">
         <v>100</v>
@@ -8835,10 +8835,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
         <v>100</v>
@@ -8850,7 +8850,7 @@
         <v>100</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>100</v>
@@ -8862,16 +8862,16 @@
         <v>100</v>
       </c>
       <c r="K162" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L162" t="n">
         <v>100</v>
       </c>
       <c r="M162" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>99.99999999999997</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="163">
@@ -8887,10 +8887,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D163" t="n">
         <v>100</v>
@@ -8914,13 +8914,13 @@
         <v>100</v>
       </c>
       <c r="K163" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L163" t="n">
         <v>100</v>
       </c>
       <c r="M163" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="N163" t="n">
         <v>100</v>
@@ -8939,7 +8939,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" t="n">
         <v>2</v>
@@ -8966,13 +8966,13 @@
         <v>100</v>
       </c>
       <c r="K164" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L164" t="n">
         <v>100</v>
       </c>
       <c r="M164" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N164" t="n">
         <v>100</v>
@@ -8991,10 +8991,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D165" t="n">
         <v>100</v>
@@ -9006,7 +9006,7 @@
         <v>100</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>100</v>
@@ -9024,14 +9024,14 @@
         <v>100</v>
       </c>
       <c r="M165" t="n">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="N165" t="n">
         <v>100</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P165" t="n">
@@ -9043,7 +9043,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166" t="n">
         <v>3</v>
@@ -9058,7 +9058,7 @@
         <v>100</v>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>100</v>
@@ -9070,20 +9070,20 @@
         <v>100</v>
       </c>
       <c r="K166" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L166" t="n">
         <v>100</v>
       </c>
       <c r="M166" t="n">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="N166" t="n">
         <v>100</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P166" t="n">
@@ -9095,10 +9095,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167" t="n">
         <v>100</v>
@@ -9110,7 +9110,7 @@
         <v>100</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>100</v>
@@ -9122,20 +9122,20 @@
         <v>100</v>
       </c>
       <c r="K167" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="L167" t="n">
         <v>100</v>
       </c>
       <c r="M167" t="n">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="N167" t="n">
         <v>100</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P167" t="n">
@@ -9147,7 +9147,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" t="n">
         <v>2</v>
@@ -9174,13 +9174,13 @@
         <v>100</v>
       </c>
       <c r="K168" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L168" t="n">
         <v>100</v>
       </c>
       <c r="M168" t="n">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="N168" t="n">
         <v>100</v>
@@ -9199,10 +9199,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
         <v>100</v>
@@ -9226,13 +9226,13 @@
         <v>100</v>
       </c>
       <c r="K169" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="L169" t="n">
         <v>100</v>
       </c>
       <c r="M169" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N169" t="n">
         <v>100</v>
@@ -9251,10 +9251,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D170" t="n">
         <v>100</v>
@@ -9278,13 +9278,13 @@
         <v>100</v>
       </c>
       <c r="K170" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L170" t="n">
         <v>100</v>
       </c>
       <c r="M170" t="n">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="N170" t="n">
         <v>100</v>
@@ -9303,10 +9303,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D171" t="n">
         <v>100</v>
@@ -9330,13 +9330,13 @@
         <v>100</v>
       </c>
       <c r="K171" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="L171" t="n">
         <v>100</v>
       </c>
       <c r="M171" t="n">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="N171" t="n">
         <v>100</v>
@@ -9355,10 +9355,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D172" t="n">
         <v>100</v>
@@ -9382,13 +9382,13 @@
         <v>100</v>
       </c>
       <c r="K172" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="L172" t="n">
         <v>100</v>
       </c>
       <c r="M172" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="N172" t="n">
         <v>100</v>
@@ -9407,7 +9407,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" t="n">
         <v>6</v>
@@ -9428,26 +9428,26 @@
         <v>100</v>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
         <v>100</v>
       </c>
       <c r="K173" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L173" t="n">
         <v>100</v>
       </c>
       <c r="M173" t="n">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="N173" t="n">
         <v>100</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P173" t="n">
@@ -9459,10 +9459,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
         <v>100</v>
@@ -9480,26 +9480,26 @@
         <v>100</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
         <v>100</v>
       </c>
       <c r="K174" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="L174" t="n">
         <v>100</v>
       </c>
       <c r="M174" t="n">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="N174" t="n">
         <v>100</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P174" t="n">
@@ -9511,10 +9511,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C175" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D175" t="n">
         <v>100</v>
@@ -9532,30 +9532,30 @@
         <v>100</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L175" t="n">
         <v>100</v>
       </c>
       <c r="M175" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="N175" t="n">
         <v>100</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>99.99999999999997</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="176">
@@ -9563,13 +9563,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D176" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -9590,24 +9590,24 @@
         <v>100</v>
       </c>
       <c r="K176" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L176" t="n">
         <v>100</v>
       </c>
       <c r="M176" t="n">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="N176" t="n">
         <v>100</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="177">
@@ -9615,13 +9615,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -9642,24 +9642,24 @@
         <v>100</v>
       </c>
       <c r="K177" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L177" t="n">
         <v>100</v>
       </c>
       <c r="M177" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N177" t="n">
         <v>100</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="178">
@@ -9667,13 +9667,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -9694,24 +9694,24 @@
         <v>100</v>
       </c>
       <c r="K178" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L178" t="n">
         <v>100</v>
       </c>
       <c r="M178" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="N178" t="n">
         <v>100</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="179">
@@ -9719,13 +9719,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -9746,24 +9746,24 @@
         <v>100</v>
       </c>
       <c r="K179" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L179" t="n">
         <v>100</v>
       </c>
       <c r="M179" t="n">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="N179" t="n">
         <v>100</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="180">
@@ -9771,7 +9771,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" t="n">
         <v>2</v>
@@ -9798,13 +9798,13 @@
         <v>100</v>
       </c>
       <c r="K180" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L180" t="n">
         <v>100</v>
       </c>
       <c r="M180" t="n">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="N180" t="n">
         <v>100</v>
@@ -9823,7 +9823,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C181" t="n">
         <v>2</v>
@@ -9850,13 +9850,13 @@
         <v>100</v>
       </c>
       <c r="K181" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L181" t="n">
         <v>100</v>
       </c>
       <c r="M181" t="n">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="N181" t="n">
         <v>100</v>
@@ -9875,7 +9875,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" t="n">
         <v>2</v>
@@ -9896,26 +9896,26 @@
         <v>100</v>
       </c>
       <c r="I182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
         <v>100</v>
       </c>
       <c r="K182" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L182" t="n">
         <v>100</v>
       </c>
       <c r="M182" t="n">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="N182" t="n">
         <v>100</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P182" t="n">
@@ -9927,10 +9927,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
         <v>100</v>
@@ -9948,26 +9948,26 @@
         <v>100</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="n">
         <v>100</v>
       </c>
       <c r="K183" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L183" t="n">
         <v>100</v>
       </c>
       <c r="M183" t="n">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="N183" t="n">
         <v>100</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P183" t="n">
@@ -9979,10 +9979,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D184" t="n">
         <v>100</v>
@@ -10006,13 +10006,13 @@
         <v>100</v>
       </c>
       <c r="K184" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L184" t="n">
         <v>100</v>
       </c>
       <c r="M184" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="N184" t="n">
         <v>100</v>
@@ -10031,10 +10031,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
         <v>100</v>
@@ -10058,13 +10058,13 @@
         <v>100</v>
       </c>
       <c r="K185" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L185" t="n">
         <v>100</v>
       </c>
       <c r="M185" t="n">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N185" t="n">
         <v>100</v>
@@ -10083,10 +10083,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D186" t="n">
         <v>100</v>
@@ -10110,13 +10110,13 @@
         <v>100</v>
       </c>
       <c r="K186" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L186" t="n">
         <v>100</v>
       </c>
       <c r="M186" t="n">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="N186" t="n">
         <v>100</v>
@@ -10135,7 +10135,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" t="n">
         <v>2</v>
@@ -10162,13 +10162,13 @@
         <v>100</v>
       </c>
       <c r="K187" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L187" t="n">
         <v>100</v>
       </c>
       <c r="M187" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N187" t="n">
         <v>100</v>
@@ -10187,7 +10187,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C188" t="n">
         <v>2</v>
@@ -10214,13 +10214,13 @@
         <v>100</v>
       </c>
       <c r="K188" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L188" t="n">
         <v>100</v>
       </c>
       <c r="M188" t="n">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="N188" t="n">
         <v>100</v>
@@ -10239,7 +10239,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C189" t="n">
         <v>2</v>
@@ -10266,13 +10266,13 @@
         <v>100</v>
       </c>
       <c r="K189" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L189" t="n">
         <v>100</v>
       </c>
       <c r="M189" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N189" t="n">
         <v>100</v>
@@ -10291,7 +10291,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C190" t="n">
         <v>2</v>
@@ -10318,24 +10318,24 @@
         <v>100</v>
       </c>
       <c r="K190" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L190" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M190" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="N190" t="n">
         <v>100</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>98.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="191">
@@ -10343,13 +10343,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E191" t="n">
         <v>1</v>
@@ -10358,10 +10358,10 @@
         <v>100</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -10370,16 +10370,16 @@
         <v>100</v>
       </c>
       <c r="K191" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L191" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N191" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>58.33333333333333</v>
+        <v>98.33333333333331</v>
       </c>
     </row>
     <row r="192">
@@ -10395,7 +10395,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -10416,16 +10416,16 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M192" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>25</v>
+        <v>58.33333333333333</v>
       </c>
     </row>
     <row r="193">
@@ -10447,7 +10447,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C193" t="n">
         <v>2</v>
@@ -10462,10 +10462,10 @@
         <v>100</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -10474,16 +10474,16 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="L193" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M193" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>66.66666666666666</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="194">
@@ -10499,13 +10499,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
@@ -10526,16 +10526,16 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L194" t="n">
         <v>100</v>
       </c>
       <c r="M194" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N194" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>41.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="195">
@@ -10551,13 +10551,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -10578,16 +10578,16 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L195" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M195" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>34.99999999999999</v>
+        <v>41.66666666666666</v>
       </c>
     </row>
     <row r="196">
@@ -10603,13 +10603,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -10624,22 +10624,22 @@
         <v>100</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
         <v>10</v>
       </c>
-      <c r="L196" t="n">
-        <v>100</v>
-      </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>83.33333333333331</v>
+        <v>51.66666666666666</v>
       </c>
     </row>
     <row r="197">
@@ -10655,13 +10655,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -10682,16 +10682,16 @@
         <v>100</v>
       </c>
       <c r="K197" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L197" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M197" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>96.66666666666666</v>
+        <v>74.99999999999999</v>
       </c>
     </row>
     <row r="198">
@@ -10707,7 +10707,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C198" t="n">
         <v>2</v>
@@ -10734,24 +10734,24 @@
         <v>100</v>
       </c>
       <c r="K198" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L198" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M198" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N198" t="n">
         <v>100</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>99.99999999999997</v>
+        <v>94.99999999999997</v>
       </c>
     </row>
     <row r="199">
@@ -10759,7 +10759,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" t="n">
         <v>2</v>
@@ -10786,13 +10786,13 @@
         <v>100</v>
       </c>
       <c r="K199" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L199" t="n">
         <v>100</v>
       </c>
       <c r="M199" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N199" t="n">
         <v>100</v>
@@ -10811,7 +10811,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200" t="n">
         <v>2</v>
@@ -10838,24 +10838,24 @@
         <v>100</v>
       </c>
       <c r="K200" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L200" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M200" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N200" t="n">
         <v>100</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>93.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="201">
@@ -10863,7 +10863,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C201" t="n">
         <v>2</v>
@@ -10890,13 +10890,13 @@
         <v>100</v>
       </c>
       <c r="K201" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L201" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M201" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N201" t="n">
         <v>100</v>
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>94.99999999999997</v>
+        <v>93.33333333333331</v>
       </c>
     </row>
     <row r="202">
@@ -10915,10 +10915,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D202" t="n">
         <v>100</v>
@@ -10942,24 +10942,24 @@
         <v>100</v>
       </c>
       <c r="K202" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L202" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M202" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N202" t="n">
         <v>100</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>99.99999999999997</v>
+        <v>94.99999999999997</v>
       </c>
     </row>
     <row r="203">
@@ -10967,10 +10967,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D203" t="n">
         <v>100</v>
@@ -10994,24 +10994,24 @@
         <v>100</v>
       </c>
       <c r="K203" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L203" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M203" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N203" t="n">
         <v>100</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>89.99999999999997</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="204">
@@ -11019,7 +11019,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C204" t="n">
         <v>2</v>
@@ -11046,24 +11046,24 @@
         <v>100</v>
       </c>
       <c r="K204" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L204" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M204" t="n">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="N204" t="n">
         <v>100</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>99.99999999999997</v>
+        <v>89.99999999999997</v>
       </c>
     </row>
     <row r="205">
@@ -11071,10 +11071,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D205" t="n">
         <v>100</v>
@@ -11098,13 +11098,13 @@
         <v>100</v>
       </c>
       <c r="K205" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L205" t="n">
         <v>100</v>
       </c>
       <c r="M205" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="N205" t="n">
         <v>100</v>
@@ -11123,10 +11123,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206" t="n">
         <v>100</v>
@@ -11150,13 +11150,13 @@
         <v>100</v>
       </c>
       <c r="K206" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L206" t="n">
         <v>100</v>
       </c>
       <c r="M206" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="N206" t="n">
         <v>100</v>
@@ -11175,7 +11175,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C207" t="n">
         <v>2</v>
@@ -11190,10 +11190,10 @@
         <v>100</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -11202,24 +11202,24 @@
         <v>100</v>
       </c>
       <c r="K207" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L207" t="n">
         <v>100</v>
       </c>
       <c r="M207" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N207" t="n">
         <v>100</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="208">
@@ -11227,10 +11227,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C208" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D208" t="n">
         <v>100</v>
@@ -11254,13 +11254,13 @@
         <v>100</v>
       </c>
       <c r="K208" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L208" t="n">
         <v>100</v>
       </c>
       <c r="M208" t="n">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="N208" t="n">
         <v>100</v>
@@ -11279,10 +11279,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D209" t="n">
         <v>100</v>
@@ -11306,13 +11306,13 @@
         <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L209" t="n">
         <v>100</v>
       </c>
       <c r="M209" t="n">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="N209" t="n">
         <v>100</v>
@@ -11331,10 +11331,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" t="n">
         <v>100</v>
@@ -11358,13 +11358,13 @@
         <v>100</v>
       </c>
       <c r="K210" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L210" t="n">
         <v>100</v>
       </c>
       <c r="M210" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N210" t="n">
         <v>100</v>
@@ -11383,7 +11383,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C211" t="n">
         <v>2</v>
@@ -11410,13 +11410,13 @@
         <v>100</v>
       </c>
       <c r="K211" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="L211" t="n">
         <v>100</v>
       </c>
       <c r="M211" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="N211" t="n">
         <v>100</v>
@@ -11435,10 +11435,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D212" t="n">
         <v>100</v>
@@ -11462,13 +11462,13 @@
         <v>100</v>
       </c>
       <c r="K212" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L212" t="n">
         <v>100</v>
       </c>
       <c r="M212" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="N212" t="n">
         <v>100</v>
@@ -11487,10 +11487,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C213" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D213" t="n">
         <v>100</v>
@@ -11514,13 +11514,13 @@
         <v>100</v>
       </c>
       <c r="K213" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L213" t="n">
         <v>100</v>
       </c>
       <c r="M213" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N213" t="n">
         <v>100</v>
@@ -11539,10 +11539,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C214" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D214" t="n">
         <v>100</v>
@@ -11566,24 +11566,24 @@
         <v>100</v>
       </c>
       <c r="K214" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L214" t="n">
         <v>100</v>
       </c>
       <c r="M214" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="N214" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>84.16666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="215">
@@ -11591,10 +11591,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D215" t="n">
         <v>100</v>
@@ -11618,16 +11618,16 @@
         <v>100</v>
       </c>
       <c r="K215" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="L215" t="n">
         <v>100</v>
       </c>
       <c r="M215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N215" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>83.33333333333331</v>
+        <v>84.16666666666666</v>
       </c>
     </row>
     <row r="216">
@@ -11643,10 +11643,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C216" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D216" t="n">
         <v>100</v>
@@ -11676,18 +11676,18 @@
         <v>100</v>
       </c>
       <c r="M216" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>99.99999999999997</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="217">
@@ -11695,10 +11695,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D217" t="n">
         <v>100</v>
@@ -11722,13 +11722,13 @@
         <v>100</v>
       </c>
       <c r="K217" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="L217" t="n">
         <v>100</v>
       </c>
       <c r="M217" t="n">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="N217" t="n">
         <v>100</v>
@@ -11747,10 +11747,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
         <v>100</v>
@@ -11762,7 +11762,7 @@
         <v>100</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>100</v>
@@ -11774,20 +11774,20 @@
         <v>100</v>
       </c>
       <c r="K218" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L218" t="n">
         <v>100</v>
       </c>
       <c r="M218" t="n">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="N218" t="n">
         <v>100</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P218" t="n">
@@ -11799,10 +11799,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D219" t="n">
         <v>100</v>
@@ -11814,7 +11814,7 @@
         <v>100</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>100</v>
@@ -11826,13 +11826,13 @@
         <v>100</v>
       </c>
       <c r="K219" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L219" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M219" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N219" t="n">
         <v>100</v>
@@ -11843,7 +11843,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>98.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="220">
@@ -11851,10 +11851,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D220" t="n">
         <v>100</v>
@@ -11878,24 +11878,24 @@
         <v>100</v>
       </c>
       <c r="K220" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L220" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M220" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="N220" t="n">
         <v>100</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>99.99999999999997</v>
+        <v>98.33333333333331</v>
       </c>
     </row>
     <row r="221">
@@ -11903,10 +11903,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D221" t="n">
         <v>100</v>
@@ -11930,24 +11930,24 @@
         <v>100</v>
       </c>
       <c r="K221" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L221" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M221" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="N221" t="n">
         <v>100</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>96.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="222">
@@ -11955,10 +11955,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D222" t="n">
         <v>100</v>
@@ -11976,19 +11976,19 @@
         <v>100</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L222" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M222" t="n">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="N222" t="n">
         <v>100</v>
@@ -11999,7 +11999,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>99.99999999999997</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223">
@@ -12007,16 +12007,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D223" t="n">
         <v>100</v>
       </c>
       <c r="E223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
         <v>100</v>
@@ -12034,13 +12034,13 @@
         <v>100</v>
       </c>
       <c r="K223" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="L223" t="n">
         <v>100</v>
       </c>
       <c r="M223" t="n">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="N223" t="n">
         <v>100</v>
@@ -12059,7 +12059,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C224" t="n">
         <v>2</v>
@@ -12068,7 +12068,7 @@
         <v>100</v>
       </c>
       <c r="E224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F224" t="n">
         <v>100</v>
@@ -12086,20 +12086,20 @@
         <v>100</v>
       </c>
       <c r="K224" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="L224" t="n">
         <v>100</v>
       </c>
       <c r="M224" t="n">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="N224" t="n">
         <v>100</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P224" t="n">
@@ -12111,7 +12111,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C225" t="n">
         <v>2</v>
@@ -12138,13 +12138,13 @@
         <v>100</v>
       </c>
       <c r="K225" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L225" t="n">
         <v>100</v>
       </c>
       <c r="M225" t="n">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="N225" t="n">
         <v>100</v>
@@ -12163,7 +12163,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C226" t="n">
         <v>2</v>
@@ -12190,13 +12190,13 @@
         <v>100</v>
       </c>
       <c r="K226" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L226" t="n">
         <v>100</v>
       </c>
       <c r="M226" t="n">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="N226" t="n">
         <v>100</v>
@@ -12215,13 +12215,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -12242,24 +12242,24 @@
         <v>100</v>
       </c>
       <c r="K227" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="L227" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M227" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="N227" t="n">
         <v>100</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>88.33333333333333</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="228">
@@ -12267,13 +12267,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -12294,24 +12294,24 @@
         <v>100</v>
       </c>
       <c r="K228" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L228" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M228" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N228" t="n">
         <v>100</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>99.99999999999997</v>
+        <v>78.33333333333331</v>
       </c>
     </row>
     <row r="229">
@@ -12319,7 +12319,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C229" t="n">
         <v>2</v>
@@ -12328,10 +12328,10 @@
         <v>100</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -12346,24 +12346,24 @@
         <v>100</v>
       </c>
       <c r="K229" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L229" t="n">
         <v>100</v>
       </c>
       <c r="M229" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N229" t="n">
         <v>100</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="230">
@@ -12371,13 +12371,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -12398,24 +12398,24 @@
         <v>100</v>
       </c>
       <c r="K230" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L230" t="n">
         <v>100</v>
       </c>
       <c r="M230" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N230" t="n">
         <v>100</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="231">
@@ -12423,13 +12423,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
@@ -12450,24 +12450,24 @@
         <v>100</v>
       </c>
       <c r="K231" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L231" t="n">
         <v>100</v>
       </c>
       <c r="M231" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N231" t="n">
         <v>100</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="232">
@@ -12475,7 +12475,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C232" t="n">
         <v>2</v>
@@ -12490,10 +12490,10 @@
         <v>100</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -12502,24 +12502,24 @@
         <v>100</v>
       </c>
       <c r="K232" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L232" t="n">
         <v>100</v>
       </c>
       <c r="M232" t="n">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="N232" t="n">
         <v>100</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="233">
@@ -12527,7 +12527,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C233" t="n">
         <v>2</v>
@@ -12554,13 +12554,13 @@
         <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L233" t="n">
         <v>100</v>
       </c>
       <c r="M233" t="n">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="N233" t="n">
         <v>100</v>
@@ -12579,7 +12579,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C234" t="n">
         <v>2</v>
@@ -12588,16 +12588,16 @@
         <v>100</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -12606,24 +12606,24 @@
         <v>100</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L234" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M234" t="n">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="N234" t="n">
         <v>100</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>49.99999999999999</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="235">
@@ -12631,7 +12631,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C235" t="n">
         <v>2</v>
@@ -12658,24 +12658,24 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N235" t="n">
         <v>100</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>99.99999999999997</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="236">
@@ -12683,7 +12683,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C236" t="n">
         <v>2</v>
@@ -12710,13 +12710,13 @@
         <v>100</v>
       </c>
       <c r="K236" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L236" t="n">
         <v>100</v>
       </c>
       <c r="M236" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="N236" t="n">
         <v>100</v>
@@ -12735,7 +12735,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C237" t="n">
         <v>2</v>
@@ -12762,13 +12762,13 @@
         <v>100</v>
       </c>
       <c r="K237" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L237" t="n">
         <v>100</v>
       </c>
       <c r="M237" t="n">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="N237" t="n">
         <v>100</v>
@@ -12787,13 +12787,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E238" t="n">
         <v>1</v>
@@ -12814,24 +12814,24 @@
         <v>100</v>
       </c>
       <c r="K238" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L238" t="n">
         <v>100</v>
       </c>
       <c r="M238" t="n">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="N238" t="n">
         <v>100</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="239">
@@ -12839,7 +12839,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -12866,13 +12866,13 @@
         <v>100</v>
       </c>
       <c r="K239" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="L239" t="n">
         <v>100</v>
       </c>
       <c r="M239" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="N239" t="n">
         <v>100</v>
@@ -12891,13 +12891,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -12918,24 +12918,24 @@
         <v>100</v>
       </c>
       <c r="K240" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L240" t="n">
         <v>100</v>
       </c>
       <c r="M240" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N240" t="n">
         <v>100</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>99.99999999999997</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="241">
@@ -12943,13 +12943,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E241" t="n">
         <v>1</v>
@@ -12970,24 +12970,24 @@
         <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="L241" t="n">
         <v>100</v>
       </c>
       <c r="M241" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="N241" t="n">
         <v>100</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="242">
@@ -12995,43 +12995,43 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K242" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="L242" t="n">
         <v>100</v>
       </c>
       <c r="M242" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N242" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>34.16666666666666</v>
+        <v>91.66666666666664</v>
       </c>
     </row>
     <row r="243">
@@ -13047,51 +13047,51 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D243" t="n">
         <v>100</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L243" t="n">
         <v>100</v>
       </c>
       <c r="M243" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="N243" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>99.99999999999997</v>
+        <v>34.16666666666666</v>
       </c>
     </row>
     <row r="244">
@@ -13099,10 +13099,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" t="n">
         <v>100</v>
@@ -13126,13 +13126,13 @@
         <v>100</v>
       </c>
       <c r="K244" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L244" t="n">
         <v>100</v>
       </c>
       <c r="M244" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N244" t="n">
         <v>100</v>
@@ -13151,10 +13151,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D245" t="n">
         <v>100</v>
@@ -13166,10 +13166,10 @@
         <v>100</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -13178,24 +13178,24 @@
         <v>100</v>
       </c>
       <c r="K245" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="L245" t="n">
         <v>100</v>
       </c>
       <c r="M245" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N245" t="n">
         <v>100</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="246">
@@ -13203,7 +13203,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C246" t="n">
         <v>2</v>
@@ -13230,13 +13230,13 @@
         <v>100</v>
       </c>
       <c r="K246" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L246" t="n">
         <v>100</v>
       </c>
       <c r="M246" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N246" t="n">
         <v>100</v>
@@ -13255,10 +13255,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D247" t="n">
         <v>100</v>
@@ -13282,13 +13282,13 @@
         <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="L247" t="n">
         <v>100</v>
       </c>
       <c r="M247" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N247" t="n">
         <v>100</v>
@@ -13307,13 +13307,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -13334,24 +13334,24 @@
         <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L248" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M248" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N248" t="n">
         <v>100</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>88.33333333333333</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="249">
@@ -13359,13 +13359,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -13386,24 +13386,24 @@
         <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L249" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M249" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="N249" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>99.99999999999997</v>
+        <v>73.33333333333333</v>
       </c>
     </row>
     <row r="250">
@@ -13411,7 +13411,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C250" t="n">
         <v>3</v>
@@ -13438,13 +13438,13 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="L250" t="n">
         <v>100</v>
       </c>
       <c r="M250" t="n">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="N250" t="n">
         <v>100</v>
@@ -13463,10 +13463,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C251" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D251" t="n">
         <v>100</v>
@@ -13490,13 +13490,13 @@
         <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L251" t="n">
         <v>100</v>
       </c>
       <c r="M251" t="n">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N251" t="n">
         <v>100</v>
@@ -13515,50 +13515,102 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>251</v>
+      </c>
+      <c r="C252" t="n">
+        <v>5</v>
+      </c>
+      <c r="D252" t="n">
+        <v>100</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>100</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>100</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>100</v>
+      </c>
+      <c r="K252" t="n">
+        <v>52</v>
+      </c>
+      <c r="L252" t="n">
+        <v>100</v>
+      </c>
+      <c r="M252" t="n">
+        <v>113</v>
+      </c>
+      <c r="N252" t="n">
+        <v>100</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
         <v>252</v>
       </c>
-      <c r="C252" t="n">
-        <v>1</v>
-      </c>
-      <c r="D252" t="n">
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
         <v>50</v>
       </c>
-      <c r="E252" t="n">
-        <v>1</v>
-      </c>
-      <c r="F252" t="n">
-        <v>100</v>
-      </c>
-      <c r="G252" t="n">
-        <v>1</v>
-      </c>
-      <c r="H252" t="n">
-        <v>100</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
-      <c r="J252" t="n">
-        <v>100</v>
-      </c>
-      <c r="K252" t="n">
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>100</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>100</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>100</v>
+      </c>
+      <c r="K253" t="n">
         <v>22</v>
       </c>
-      <c r="L252" t="n">
-        <v>100</v>
-      </c>
-      <c r="M252" t="n">
-        <v>56</v>
-      </c>
-      <c r="N252" t="n">
-        <v>100</v>
-      </c>
-      <c r="O252" t="inlineStr">
+      <c r="L253" t="n">
+        <v>100</v>
+      </c>
+      <c r="M253" t="n">
+        <v>52</v>
+      </c>
+      <c r="N253" t="n">
+        <v>100</v>
+      </c>
+      <c r="O253" t="inlineStr">
         <is>
           <t>En proceso</t>
         </is>
       </c>
-      <c r="P252" t="n">
+      <c r="P253" t="n">
         <v>91.66666666666664</v>
       </c>
     </row>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -7902,10 +7902,10 @@
         <v>143</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -7926,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L144" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>34.99999999999999</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145">
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L243" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -3713,16 +3713,16 @@
         <v>100</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P66">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3963,7 +3963,7 @@
         <v>100</v>
       </c>
       <c r="M71">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="N71">
         <v>100</v>
@@ -5513,7 +5513,7 @@
         <v>20</v>
       </c>
       <c r="M102">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="N102">
         <v>100</v>
@@ -6013,16 +6013,16 @@
         <v>90</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O112" t="s">
         <v>16</v>
       </c>
       <c r="P112">
-        <v>81.66666666666666</v>
+        <v>98.33333333333331</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6563,16 +6563,16 @@
         <v>100</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P123">
-        <v>84.16666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -8213,16 +8213,16 @@
         <v>100</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="N156">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P156">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8263,16 +8263,16 @@
         <v>100</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="N157">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P157">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -8313,16 +8313,16 @@
         <v>100</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N158">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P158">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -8363,16 +8363,16 @@
         <v>100</v>
       </c>
       <c r="M159">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N159">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P159">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -8413,16 +8413,16 @@
         <v>100</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N160">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P160">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -8463,16 +8463,16 @@
         <v>100</v>
       </c>
       <c r="M161">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N161">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P161">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -8513,16 +8513,16 @@
         <v>100</v>
       </c>
       <c r="M162">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="N162">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P162">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -11163,16 +11163,16 @@
         <v>100</v>
       </c>
       <c r="M215">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="N215">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P215">
-        <v>84.16666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -11213,16 +11213,16 @@
         <v>100</v>
       </c>
       <c r="M216">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N216">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P216">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="217" spans="1:16">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -10410,10 +10410,10 @@
         <v>100</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>58.33333333333333</v>
+        <v>74.99999999999999</v>
       </c>
     </row>
     <row r="193">
@@ -10514,16 +10514,16 @@
         <v>100</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K194" t="n">
         <v>25</v>
@@ -10539,11 +10539,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>66.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="195">
@@ -10554,10 +10554,10 @@
         <v>194</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -10566,16 +10566,16 @@
         <v>100</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K195" t="n">
         <v>16</v>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>41.66666666666666</v>
+        <v>83.33333333333331</v>
       </c>
     </row>
     <row r="196">
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L243" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -2194,13 +2194,13 @@
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>100</v>
@@ -7932,10 +7932,10 @@
         <v>20</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>45</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="145">
@@ -10398,10 +10398,10 @@
         <v>191</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -10428,10 +10428,10 @@
         <v>100</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>74.99999999999999</v>
+        <v>89.16666666666666</v>
       </c>
     </row>
     <row r="193">
@@ -13224,7 +13224,7 @@
         <v>100</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J246" t="n">
         <v>100</v>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="P246" t="n">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -7932,10 +7932,10 @@
         <v>20</v>
       </c>
       <c r="M144" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N144" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>52.5</v>
+        <v>61.66666666666666</v>
       </c>
     </row>
     <row r="145">
@@ -10428,10 +10428,10 @@
         <v>100</v>
       </c>
       <c r="M192" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N192" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>89.16666666666666</v>
+        <v>91.66666666666666</v>
       </c>
     </row>
     <row r="193">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -10428,18 +10428,18 @@
         <v>100</v>
       </c>
       <c r="M192" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N192" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>91.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="193">
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L243" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -7932,7 +7932,7 @@
         <v>20</v>
       </c>
       <c r="M144" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N144" t="n">
         <v>100</v>
@@ -10584,10 +10584,10 @@
         <v>100</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>83.33333333333331</v>
+        <v>89.16666666666666</v>
       </c>
     </row>
     <row r="196">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -8192,7 +8192,7 @@
         <v>100</v>
       </c>
       <c r="M149" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N149" t="n">
         <v>100</v>
@@ -10584,18 +10584,18 @@
         <v>100</v>
       </c>
       <c r="M195" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N195" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>89.16666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="196">
@@ -12658,10 +12658,10 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L235" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M235" t="n">
         <v>114</v>
@@ -12671,11 +12671,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="236">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -652,7 +652,7 @@
         <v>100</v>
       </c>
       <c r="M4" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4" t="n">
         <v>100</v>
@@ -10584,7 +10584,7 @@
         <v>100</v>
       </c>
       <c r="M195" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N195" t="n">
         <v>100</v>
@@ -12658,7 +12658,7 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L235" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -769,7 +769,7 @@
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7">
         <v>99.99999999999997</v>
@@ -819,7 +819,7 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P8">
         <v>99.99999999999997</v>
@@ -1119,7 +1119,7 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P14">
         <v>91.66666666666664</v>
@@ -1269,7 +1269,7 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P17">
         <v>99.99999999999997</v>
@@ -2369,7 +2369,7 @@
         <v>100</v>
       </c>
       <c r="O39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P39">
         <v>99.99999999999997</v>
@@ -2619,7 +2619,7 @@
         <v>100</v>
       </c>
       <c r="O44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P44">
         <v>99.99999999999997</v>
@@ -2669,7 +2669,7 @@
         <v>100</v>
       </c>
       <c r="O45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P45">
         <v>99.99999999999997</v>
@@ -2769,7 +2769,7 @@
         <v>100</v>
       </c>
       <c r="O47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P47">
         <v>99.99999999999997</v>
@@ -2919,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="O50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P50">
         <v>99.99999999999997</v>
@@ -3519,7 +3519,7 @@
         <v>100</v>
       </c>
       <c r="O62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P62">
         <v>91.66666666666664</v>
@@ -3769,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="O67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P67">
         <v>99.99999999999997</v>
@@ -4019,7 +4019,7 @@
         <v>100</v>
       </c>
       <c r="O72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P72">
         <v>91.66666666666664</v>
@@ -4269,7 +4269,7 @@
         <v>100</v>
       </c>
       <c r="O77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P77">
         <v>91.66666666666664</v>
@@ -4669,7 +4669,7 @@
         <v>100</v>
       </c>
       <c r="O85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P85">
         <v>99.99999999999997</v>
@@ -6519,7 +6519,7 @@
         <v>100</v>
       </c>
       <c r="O122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P122">
         <v>91.66666666666664</v>
@@ -6869,7 +6869,7 @@
         <v>100</v>
       </c>
       <c r="O129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P129">
         <v>91.66666666666664</v>
@@ -7019,7 +7019,7 @@
         <v>100</v>
       </c>
       <c r="O132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P132">
         <v>91.66666666666664</v>
@@ -7119,7 +7119,7 @@
         <v>100</v>
       </c>
       <c r="O134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P134">
         <v>91.66666666666664</v>
@@ -7169,7 +7169,7 @@
         <v>100</v>
       </c>
       <c r="O135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P135">
         <v>99.99999999999997</v>
@@ -7419,7 +7419,7 @@
         <v>100</v>
       </c>
       <c r="O140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P140">
         <v>99.99999999999997</v>
@@ -7469,7 +7469,7 @@
         <v>100</v>
       </c>
       <c r="O141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P141">
         <v>99.99999999999997</v>
@@ -8569,7 +8569,7 @@
         <v>100</v>
       </c>
       <c r="O163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P163">
         <v>99.99999999999997</v>
@@ -8619,7 +8619,7 @@
         <v>100</v>
       </c>
       <c r="O164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P164">
         <v>99.99999999999997</v>
@@ -8669,7 +8669,7 @@
         <v>100</v>
       </c>
       <c r="O165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P165">
         <v>99.99999999999997</v>
@@ -8769,7 +8769,7 @@
         <v>100</v>
       </c>
       <c r="O167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P167">
         <v>99.99999999999997</v>
@@ -9119,7 +9119,7 @@
         <v>100</v>
       </c>
       <c r="O174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P174">
         <v>99.99999999999997</v>
@@ -9269,7 +9269,7 @@
         <v>100</v>
       </c>
       <c r="O177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P177">
         <v>91.66666666666664</v>
@@ -9369,7 +9369,7 @@
         <v>100</v>
       </c>
       <c r="O179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P179">
         <v>91.66666666666664</v>
@@ -11369,7 +11369,7 @@
         <v>100</v>
       </c>
       <c r="O219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P219">
         <v>99.99999999999997</v>
@@ -11619,7 +11619,7 @@
         <v>100</v>
       </c>
       <c r="O224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P224">
         <v>99.99999999999997</v>
@@ -12369,7 +12369,7 @@
         <v>100</v>
       </c>
       <c r="O239" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P239">
         <v>91.66666666666664</v>
@@ -12419,7 +12419,7 @@
         <v>100</v>
       </c>
       <c r="O240" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P240">
         <v>91.66666666666664</v>
@@ -12519,7 +12519,7 @@
         <v>100</v>
       </c>
       <c r="O242" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P242">
         <v>91.66666666666664</v>
@@ -12719,7 +12719,7 @@
         <v>100</v>
       </c>
       <c r="O246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P246">
         <v>99.99999999999997</v>
@@ -13069,7 +13069,7 @@
         <v>100</v>
       </c>
       <c r="O253" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P253">
         <v>91.66666666666664</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -530,7 +530,7 @@
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -6990,10 +6990,10 @@
         <v>100</v>
       </c>
       <c r="K126" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L126" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M126" t="n">
         <v>74</v>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>89.99999999999997</v>
+        <v>98.33333333333331</v>
       </c>
     </row>
     <row r="127">
@@ -10480,10 +10480,10 @@
         <v>60</v>
       </c>
       <c r="M193" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="N193" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>86.66666666666666</v>
+        <v>93.33333333333331</v>
       </c>
     </row>
     <row r="194">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -6990,10 +6990,10 @@
         <v>100</v>
       </c>
       <c r="K126" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L126" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M126" t="n">
         <v>74</v>
@@ -7003,11 +7003,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>98.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="127">
@@ -7920,10 +7920,10 @@
         <v>100</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K144" t="n">
         <v>4</v>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>64.99999999999999</v>
+        <v>81.66666666666664</v>
       </c>
     </row>
     <row r="145">
@@ -10630,10 +10630,10 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L196" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M196" t="n">
         <v>52</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>65</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="197">
@@ -12658,7 +12658,7 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L235" t="n">
         <v>100</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L243" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -7902,10 +7902,10 @@
         <v>143</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>81.66666666666664</v>
+        <v>89.99999999999997</v>
       </c>
     </row>
     <row r="145">
@@ -10474,10 +10474,10 @@
         <v>100</v>
       </c>
       <c r="K193" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L193" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M193" t="n">
         <v>59</v>
@@ -10491,7 +10491,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>93.33333333333331</v>
+        <v>94.99999999999997</v>
       </c>
     </row>
     <row r="194">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -5014,10 +5014,10 @@
         <v>100</v>
       </c>
       <c r="K88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L88" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M88" t="n">
         <v>119</v>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>93.33333333333331</v>
+        <v>94.99999999999997</v>
       </c>
     </row>
     <row r="89">
@@ -7926,10 +7926,10 @@
         <v>100</v>
       </c>
       <c r="K144" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L144" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M144" t="n">
         <v>48</v>
@@ -7939,11 +7939,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>89.99999999999997</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="145">
@@ -10606,10 +10606,10 @@
         <v>195</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>66.66666666666666</v>
+        <v>74.99999999999999</v>
       </c>
     </row>
     <row r="197">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -10606,10 +10606,10 @@
         <v>195</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -10624,10 +10624,10 @@
         <v>100</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K196" t="n">
         <v>10</v>
@@ -10643,11 +10643,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>74.99999999999999</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="197">
@@ -12658,7 +12658,7 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L235" t="n">
         <v>100</v>
@@ -13062,10 +13062,10 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>34.16666666666666</v>
+        <v>50.83333333333332</v>
       </c>
     </row>
     <row r="244">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -10630,7 +10630,7 @@
         <v>100</v>
       </c>
       <c r="K196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L196" t="n">
         <v>100</v>
@@ -13056,10 +13056,10 @@
         <v>100</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -13068,13 +13068,13 @@
         <v>100</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K243" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L243" t="n">
         <v>100</v>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>50.83333333333332</v>
+        <v>84.16666666666666</v>
       </c>
     </row>
     <row r="244">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -12658,7 +12658,7 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L235" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -5014,10 +5014,10 @@
         <v>100</v>
       </c>
       <c r="K88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L88" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M88" t="n">
         <v>119</v>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>94.99999999999997</v>
+        <v>96.66666666666666</v>
       </c>
     </row>
     <row r="89">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -10370,10 +10370,10 @@
         <v>100</v>
       </c>
       <c r="K191" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L191" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M191" t="n">
         <v>44</v>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>98.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="192">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -10474,10 +10474,10 @@
         <v>100</v>
       </c>
       <c r="K193" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L193" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M193" t="n">
         <v>59</v>
@@ -10487,11 +10487,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>94.99999999999997</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="194">
@@ -10630,7 +10630,7 @@
         <v>100</v>
       </c>
       <c r="K196" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L196" t="n">
         <v>100</v>

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -1142,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="15">
@@ -1582,7 +1582,7 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L22" t="n">
         <v>100</v>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>100</v>
@@ -2105,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M32" t="n">
         <v>53</v>
@@ -2115,11 +2115,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>91.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="33">
@@ -2194,13 +2194,13 @@
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>100</v>
@@ -2209,7 +2209,7 @@
         <v>9</v>
       </c>
       <c r="L34" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
         <v>74</v>
@@ -2219,11 +2219,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>98.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="35">
@@ -3066,10 +3066,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="52">
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="L75" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M75" t="n">
         <v>62</v>
@@ -4351,11 +4351,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>91.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="76">
@@ -4809,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="L84" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M84" t="n">
         <v>185</v>
@@ -4819,11 +4819,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>93.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="85">
@@ -5017,7 +5017,7 @@
         <v>8</v>
       </c>
       <c r="L88" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
         <v>119</v>
@@ -5027,11 +5027,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>96.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="89">
@@ -5641,7 +5641,7 @@
         <v>8</v>
       </c>
       <c r="L100" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M100" t="n">
         <v>290</v>
@@ -5651,11 +5651,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>96.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="101">
@@ -5693,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M101" t="n">
         <v>97</v>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>86.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="102">
@@ -5745,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="L102" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M102" t="n">
         <v>129</v>
@@ -5755,11 +5755,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>88.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="103">
@@ -5797,7 +5797,7 @@
         <v>4</v>
       </c>
       <c r="L103" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M103" t="n">
         <v>110</v>
@@ -5807,11 +5807,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>89.99999999999997</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="104">
@@ -5849,7 +5849,7 @@
         <v>5</v>
       </c>
       <c r="L104" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M104" t="n">
         <v>112</v>
@@ -5859,11 +5859,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>91.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="105">
@@ -5901,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="L105" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M105" t="n">
         <v>103</v>
@@ -5911,11 +5911,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>88.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="106">
@@ -5953,7 +5953,7 @@
         <v>6</v>
       </c>
       <c r="L106" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M106" t="n">
         <v>157</v>
@@ -5963,11 +5963,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>93.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="107">
@@ -6265,7 +6265,7 @@
         <v>9</v>
       </c>
       <c r="L112" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M112" t="n">
         <v>57</v>
@@ -6275,11 +6275,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>98.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="113">
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="130">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="133">
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="135">
@@ -7825,7 +7825,7 @@
         <v>5</v>
       </c>
       <c r="L142" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M142" t="n">
         <v>114</v>
@@ -7835,11 +7835,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>91.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="143">
@@ -7877,7 +7877,7 @@
         <v>5</v>
       </c>
       <c r="L143" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M143" t="n">
         <v>104</v>
@@ -7887,11 +7887,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>91.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="144">
@@ -7981,7 +7981,7 @@
         <v>5</v>
       </c>
       <c r="L145" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M145" t="n">
         <v>120</v>
@@ -7991,11 +7991,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>91.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="146">
@@ -9532,10 +9532,10 @@
         <v>100</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K175" t="n">
         <v>36</v>
@@ -9551,11 +9551,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>83.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="176">
@@ -9621,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="178">
@@ -9725,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -9763,7 +9763,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="180">
@@ -10658,10 +10658,10 @@
         <v>196</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -10699,7 +10699,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="198">
@@ -10710,7 +10710,7 @@
         <v>197</v>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D198" t="n">
         <v>100</v>
@@ -10737,7 +10737,7 @@
         <v>8</v>
       </c>
       <c r="L198" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M198" t="n">
         <v>48</v>
@@ -10747,11 +10747,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>96.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="199">
@@ -10893,7 +10893,7 @@
         <v>6</v>
       </c>
       <c r="L201" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M201" t="n">
         <v>56</v>
@@ -10903,11 +10903,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>93.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="202">
@@ -10945,7 +10945,7 @@
         <v>7</v>
       </c>
       <c r="L202" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M202" t="n">
         <v>29</v>
@@ -10955,11 +10955,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>94.99999999999997</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="203">
@@ -11049,7 +11049,7 @@
         <v>4</v>
       </c>
       <c r="L204" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M204" t="n">
         <v>30</v>
@@ -11059,11 +11059,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>89.99999999999997</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="205">
@@ -11698,7 +11698,7 @@
         <v>216</v>
       </c>
       <c r="C217" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D217" t="n">
         <v>100</v>
@@ -11881,7 +11881,7 @@
         <v>9</v>
       </c>
       <c r="L220" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M220" t="n">
         <v>96</v>
@@ -11891,11 +11891,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>98.33333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="221">
@@ -11985,7 +11985,7 @@
         <v>8</v>
       </c>
       <c r="L222" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M222" t="n">
         <v>54</v>
@@ -11995,11 +11995,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>96.66666666666666</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="223">
@@ -12270,10 +12270,10 @@
         <v>227</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -12297,7 +12297,7 @@
         <v>8</v>
       </c>
       <c r="L228" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M228" t="n">
         <v>55</v>
@@ -12307,11 +12307,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>80</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="229">
@@ -12429,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="232">
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -12883,7 +12883,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="240">
@@ -12897,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -12935,7 +12935,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="241">
@@ -13001,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -13039,7 +13039,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>91.66666666666664</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="243">
@@ -13102,7 +13102,7 @@
         <v>243</v>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D244" t="n">
         <v>100</v>
@@ -13365,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -13389,7 +13389,7 @@
         <v>8</v>
       </c>
       <c r="L249" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M249" t="n">
         <v>56</v>
@@ -13399,11 +13399,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>88.33333333333333</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="250">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -13080,10 +13080,10 @@
         <v>100</v>
       </c>
       <c r="M243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N243" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>84.16666666666666</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -13080,10 +13080,10 @@
         <v>100</v>
       </c>
       <c r="M243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N243" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>85</v>
+        <v>85.83333333333331</v>
       </c>
     </row>
     <row r="244">

--- a/data/descargables/Instrumentos_DetalleCFK.xlsx
+++ b/data/descargables/Instrumentos_DetalleCFK.xlsx
@@ -13080,18 +13080,18 @@
         <v>100</v>
       </c>
       <c r="M243" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="N243" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>85.83333333333331</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="244">
